--- a/journal-evaluation/diff-ec.xlsx
+++ b/journal-evaluation/diff-ec.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>caso-rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,23 +39,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>con-rs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>con-lrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wdev_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wdev_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wdev_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -87,7 +75,11 @@
     <t>( 8,4 )</t>
   </si>
   <si>
-    <t>Number of parity updates with different erasure codes (ratio=0.5, tm_dis=3), 其中lrc分别为（4,2,2,1），（6,3,2,1），（8,4,2,2）, 四个参数的意思是k,m,l,以及每个local group parity的个数</t>
+    <t>Number of parity updates with different erasure codes (ratio=0.5, tm_dis=3), 其中lrc分别为（4,2,2,1），（6,3,2,1），（8,4,2,2）, 四个参数的意思是k,m,l,以及每个local group parity的个数
+time_distance=4</t>
+  </si>
+  <si>
+    <t>wdev_1</t>
   </si>
 </sst>
 </file>
@@ -232,9 +224,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,6 +235,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +546,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -563,19 +555,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -583,20 +575,20 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2">
+        <f>B3/C3</f>
+        <v>0.90140845070422537</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>0</v>
@@ -604,144 +596,153 @@
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="3"/>
+      <c r="R2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C3" s="4">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="D3" s="4">
-        <v>1376</v>
+        <v>1099</v>
       </c>
       <c r="E3" s="4">
-        <v>1098</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1191</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2060</v>
+        <v>1169</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">B4/C4</f>
+        <v>1.0355731225296443</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K3" s="4">
-        <v>19246</v>
+        <v>18634</v>
       </c>
       <c r="L3" s="4">
-        <v>21086</v>
-      </c>
-      <c r="M3" s="4"/>
+        <v>20522</v>
+      </c>
+      <c r="M3" s="4">
+        <v>32747</v>
+      </c>
       <c r="N3" s="4">
-        <v>33527</v>
-      </c>
-      <c r="O3" s="4">
-        <v>36071</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="11"/>
+        <v>35375</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4">
+        <f>K3/L3</f>
+        <v>0.90800116947665921</v>
+      </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C4" s="4">
-        <v>789</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>759</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1144</v>
+      </c>
       <c r="E4" s="4">
-        <v>1141</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1192</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.70206489675516226</v>
+      </c>
       <c r="J4" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K4" s="4">
-        <v>24522</v>
+        <v>22530</v>
       </c>
       <c r="L4" s="4">
-        <v>27024</v>
-      </c>
-      <c r="M4" s="4"/>
+        <v>25860</v>
+      </c>
+      <c r="M4" s="4">
+        <v>33638</v>
+      </c>
       <c r="N4" s="4">
-        <v>35980</v>
-      </c>
-      <c r="O4" s="4">
-        <v>39082</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="11"/>
+        <v>37692</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4">
+        <f t="shared" ref="P4:P5" si="1">K4/L4</f>
+        <v>0.87122969837587005</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
-        <v>1040</v>
+        <v>952</v>
       </c>
       <c r="C5" s="4">
-        <v>1408</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>1356</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1588</v>
+      </c>
       <c r="E5" s="4">
-        <v>1672</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2126</v>
-      </c>
+        <v>2062</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="J5" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K5" s="4">
-        <v>28716</v>
+        <v>25888</v>
       </c>
       <c r="L5" s="4">
-        <v>30416</v>
-      </c>
-      <c r="M5" s="4"/>
+        <v>28452</v>
+      </c>
+      <c r="M5" s="4">
+        <v>43852</v>
+      </c>
       <c r="N5" s="4">
-        <v>47798</v>
-      </c>
-      <c r="O5" s="4">
-        <v>51498</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="11"/>
+        <v>48972</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90988331224518493</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="9"/>
@@ -758,9 +759,9 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="11"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="9"/>
@@ -777,9 +778,9 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="11"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="9"/>
@@ -796,9 +797,9 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="11"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="9"/>
@@ -815,190 +816,199 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="11"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="R10" s="11"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="11"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1">
-      <c r="R11" s="11"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="11"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="N12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="O12" s="4"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>756</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1048</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1235</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1604</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13">
+        <f>B13/C13</f>
+        <v>0.72137404580152675</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="4">
+        <v>55588</v>
+      </c>
+      <c r="L13" s="4">
+        <v>58616</v>
+      </c>
+      <c r="M13" s="4">
+        <v>101953</v>
+      </c>
+      <c r="N13" s="4">
+        <v>103784</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4">
+        <f>K13/L13</f>
+        <v>0.94834174969291662</v>
+      </c>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4">
-        <v>842</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1124</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1354</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1355</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1708</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2016</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="4">
-        <v>56828</v>
-      </c>
-      <c r="L13" s="4">
-        <v>61122</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4">
-        <v>104287</v>
-      </c>
-      <c r="O13" s="4">
-        <v>107644</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="B14" s="4">
-        <v>1260</v>
+        <v>1422</v>
       </c>
       <c r="C14" s="4">
-        <v>1665</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>1548</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1935</v>
+      </c>
       <c r="E14" s="4">
-        <v>1764</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2242</v>
-      </c>
+        <v>2096</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
+      <c r="H14">
+        <f t="shared" ref="H14:H15" si="2">B14/C14</f>
+        <v>0.91860465116279066</v>
+      </c>
       <c r="J14" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K14" s="4">
-        <v>68451</v>
+        <v>63288</v>
       </c>
       <c r="L14" s="4">
-        <v>65952</v>
-      </c>
-      <c r="M14" s="4"/>
+        <v>61443</v>
+      </c>
+      <c r="M14" s="4">
+        <v>97290</v>
+      </c>
       <c r="N14" s="4">
-        <v>104386</v>
-      </c>
-      <c r="O14" s="4">
-        <v>102304</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="11"/>
+        <v>96527</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
+        <f t="shared" ref="P14:P15" si="3">K14/L14</f>
+        <v>1.0300278306723305</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="9" t="s">
-        <v>17</v>
+      <c r="A15" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>1696</v>
+        <v>1580</v>
       </c>
       <c r="C15" s="4">
-        <v>1592</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>1412</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2420</v>
+      </c>
       <c r="E15" s="4">
-        <v>2576</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2714</v>
-      </c>
+        <v>2458</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1.1189801699716715</v>
+      </c>
       <c r="J15" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K15" s="4">
-        <v>78420</v>
+        <v>72252</v>
       </c>
       <c r="L15" s="4">
-        <v>92452</v>
-      </c>
-      <c r="M15" s="4"/>
+        <v>87652</v>
+      </c>
+      <c r="M15" s="4">
+        <v>125980</v>
+      </c>
       <c r="N15" s="4">
-        <v>135324</v>
-      </c>
-      <c r="O15" s="4">
-        <v>153570</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="11"/>
+        <v>146266</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.82430520695477572</v>
+      </c>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="9"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1012,12 +1022,12 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="11"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="9"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1031,12 +1041,12 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="11"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="9"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1050,9 +1060,9 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="11"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="10"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="9"/>
@@ -1069,28 +1079,28 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="11"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="10"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="R20" s="11"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="11"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="10"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="R21" s="11"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="11"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="10"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1">
-      <c r="R22" s="11"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="11"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="10"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>0</v>
@@ -1099,19 +1109,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
       <c r="J23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>0</v>
@@ -1119,138 +1125,155 @@
       <c r="L23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="2" t="s">
+      <c r="M23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="N23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="11"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="11"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="3"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="10"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="5">
-        <v>185360</v>
-      </c>
-      <c r="C24" s="5">
-        <v>213356</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <v>161288</v>
+      </c>
+      <c r="C24" s="4">
+        <v>206162</v>
+      </c>
+      <c r="D24" s="5">
+        <v>279365</v>
+      </c>
       <c r="E24" s="5">
-        <v>311524</v>
-      </c>
-      <c r="F24" s="5">
-        <v>351608</v>
-      </c>
+        <v>344390</v>
+      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
+      <c r="H24">
+        <f>B24/C24</f>
+        <v>0.78233622103006373</v>
+      </c>
       <c r="J24" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K24" s="4">
-        <v>114174</v>
+        <v>102180</v>
       </c>
       <c r="L24" s="4">
-        <v>112322</v>
-      </c>
-      <c r="M24" s="4"/>
+        <v>103046</v>
+      </c>
+      <c r="M24" s="4">
+        <v>178214</v>
+      </c>
       <c r="N24" s="4">
-        <v>195601</v>
-      </c>
-      <c r="O24" s="4">
-        <v>193544</v>
-      </c>
-      <c r="P24" s="4"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="11"/>
+        <v>178471</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4">
+        <f>K24/L24</f>
+        <v>0.99159598625856415</v>
+      </c>
+      <c r="R24" s="10"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="10"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="5">
-        <v>243156</v>
-      </c>
-      <c r="C25" s="5">
-        <v>284157</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="4">
+        <v>204321</v>
+      </c>
+      <c r="C25" s="4">
+        <v>268515</v>
+      </c>
+      <c r="D25" s="5">
+        <v>299671</v>
+      </c>
       <c r="E25" s="5">
-        <v>349109</v>
-      </c>
-      <c r="F25" s="5">
-        <v>402213</v>
-      </c>
+        <v>384350</v>
+      </c>
+      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
+      <c r="H25">
+        <f t="shared" ref="H25:H26" si="4">B25/C25</f>
+        <v>0.76092955700798837</v>
+      </c>
       <c r="J25" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K25" s="4">
-        <v>141522</v>
+        <v>121038</v>
       </c>
       <c r="L25" s="4">
-        <v>135477</v>
-      </c>
-      <c r="M25" s="4"/>
+        <v>122352</v>
+      </c>
+      <c r="M25" s="4">
+        <v>181778</v>
+      </c>
       <c r="N25" s="4">
-        <v>209228</v>
-      </c>
-      <c r="O25" s="4">
-        <v>199060</v>
-      </c>
-      <c r="P25" s="4"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="11"/>
+        <v>181034</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4">
+        <f t="shared" ref="P25:P26" si="5">K25/L25</f>
+        <v>0.98926049431149465</v>
+      </c>
+      <c r="R25" s="10"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="10"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="5">
-        <v>296136</v>
-      </c>
-      <c r="C26" s="5">
-        <v>338404</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B26" s="4">
+        <v>244460</v>
+      </c>
+      <c r="C26" s="4">
+        <v>313156</v>
+      </c>
+      <c r="D26" s="5">
+        <v>407568</v>
+      </c>
       <c r="E26" s="5">
-        <v>482268</v>
-      </c>
-      <c r="F26" s="5">
-        <v>551758</v>
-      </c>
+        <v>519312</v>
+      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>0.7806332945880009</v>
+      </c>
       <c r="J26" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K26" s="4">
-        <v>164844</v>
+        <v>138708</v>
       </c>
       <c r="L26" s="4">
-        <v>176692</v>
-      </c>
-      <c r="M26" s="4"/>
+        <v>159520</v>
+      </c>
+      <c r="M26" s="4">
+        <v>237654</v>
+      </c>
       <c r="N26" s="4">
-        <v>276298</v>
-      </c>
-      <c r="O26" s="4">
-        <v>289004</v>
-      </c>
-      <c r="P26" s="4"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="11"/>
+        <v>262564</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4">
+        <f t="shared" si="5"/>
+        <v>0.86953360080240727</v>
+      </c>
+      <c r="R26" s="10"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="10"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="9"/>
@@ -1267,9 +1290,9 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="11"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="10"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="9"/>
@@ -1286,9 +1309,9 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="11"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="10"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="9"/>
@@ -1305,9 +1328,9 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="11"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="10"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="9"/>
@@ -1324,14 +1347,14 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="11"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="10"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="34" spans="1:16" ht="15.75" thickBot="1">
       <c r="A34" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>0</v>
@@ -1340,19 +1363,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
       <c r="J34" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>0</v>
@@ -1360,126 +1379,143 @@
       <c r="L34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N34" s="2" t="s">
+      <c r="M34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="N34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P34" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="5">
-        <v>17472</v>
-      </c>
-      <c r="C35" s="5">
-        <v>19762</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5">
-        <v>30280</v>
-      </c>
-      <c r="F35" s="5">
-        <v>33334</v>
-      </c>
-      <c r="G35" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B35" s="4">
+        <v>15682</v>
+      </c>
+      <c r="C35" s="4">
+        <v>18794</v>
+      </c>
+      <c r="D35" s="4">
+        <v>27871</v>
+      </c>
+      <c r="E35" s="4">
+        <v>32165</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35">
+        <f>B35/C35</f>
+        <v>0.83441523890603386</v>
+      </c>
       <c r="J35" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K35" s="4">
-        <v>45462</v>
+        <v>44456</v>
       </c>
       <c r="L35" s="4">
-        <v>49774</v>
-      </c>
-      <c r="M35" s="4"/>
+        <v>46100</v>
+      </c>
+      <c r="M35" s="4">
+        <v>75768</v>
+      </c>
       <c r="N35" s="4">
-        <v>78287</v>
-      </c>
-      <c r="O35" s="4">
-        <v>89190</v>
-      </c>
-      <c r="P35" s="4"/>
+        <v>83351</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4">
+        <f>K35/L35</f>
+        <v>0.96433839479392625</v>
+      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="5">
-        <v>22344</v>
-      </c>
-      <c r="C36" s="5">
-        <v>25218</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5">
-        <v>32682</v>
-      </c>
-      <c r="F36" s="5">
-        <v>36435</v>
-      </c>
-      <c r="G36" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B36" s="4">
+        <v>19428</v>
+      </c>
+      <c r="C36" s="4">
+        <v>23490</v>
+      </c>
+      <c r="D36" s="4">
+        <v>28909</v>
+      </c>
+      <c r="E36" s="4">
+        <v>34340</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36">
+        <f t="shared" ref="H36:H37" si="6">B36/C36</f>
+        <v>0.82707535121328224</v>
+      </c>
       <c r="J36" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K36" s="4">
-        <v>59190</v>
+        <v>54018</v>
       </c>
       <c r="L36" s="4">
-        <v>64608</v>
-      </c>
-      <c r="M36" s="4"/>
+        <v>58710</v>
+      </c>
+      <c r="M36" s="4">
+        <v>81611</v>
+      </c>
       <c r="N36" s="4">
-        <v>88500</v>
-      </c>
-      <c r="O36" s="4">
-        <v>93382</v>
-      </c>
-      <c r="P36" s="4"/>
+        <v>85598</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4">
+        <f t="shared" ref="P36:P37" si="7">K36/L36</f>
+        <v>0.92008175779253965</v>
+      </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="5">
-        <v>27100</v>
-      </c>
-      <c r="C37" s="5">
-        <v>28892</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5">
-        <v>44686</v>
-      </c>
-      <c r="F37" s="5">
-        <v>48652</v>
-      </c>
-      <c r="G37" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B37" s="4">
+        <v>22560</v>
+      </c>
+      <c r="C37" s="4">
+        <v>26092</v>
+      </c>
+      <c r="D37" s="4">
+        <v>38236</v>
+      </c>
+      <c r="E37" s="4">
+        <v>44884</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>0.86463283765138743</v>
+      </c>
       <c r="J37" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K37" s="4">
-        <v>66276</v>
+        <v>60672</v>
       </c>
       <c r="L37" s="4">
-        <v>76384</v>
-      </c>
-      <c r="M37" s="4"/>
+        <v>69084</v>
+      </c>
+      <c r="M37" s="4">
+        <v>102354</v>
+      </c>
       <c r="N37" s="4">
-        <v>110892</v>
-      </c>
-      <c r="O37" s="4">
-        <v>126154</v>
-      </c>
-      <c r="P37" s="4"/>
+        <v>115180</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4">
+        <f t="shared" si="7"/>
+        <v>0.87823519194024668</v>
+      </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="9"/>

--- a/journal-evaluation/diff-ec.xlsx
+++ b/journal-evaluation/diff-ec.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>caso-rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
   </si>
   <si>
     <t>wdev_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wdev_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,11 +71,11 @@
     <t>( 8,4 )</t>
   </si>
   <si>
-    <t>Number of parity updates with different erasure codes (ratio=0.5, tm_dis=3), 其中lrc分别为（4,2,2,1），（6,3,2,1），（8,4,2,2）, 四个参数的意思是k,m,l,以及每个local group parity的个数
-time_distance=4</t>
+    <t>wdev_1</t>
   </si>
   <si>
-    <t>wdev_1</t>
+    <t>Number of parity updates with different erasure codes (ratio=0.5, tm_dis=3), 其中lrc分别为（4,2,2），（6,2,3），（8,2,4）, 三个参数的意思是k,l,m
+time_distance=4</t>
   </si>
 </sst>
 </file>
@@ -231,13 +227,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -555,15 +551,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -587,8 +583,12 @@
         <f>B3/C3</f>
         <v>0.90140845070422537</v>
       </c>
+      <c r="I2">
+        <f>D3/E3</f>
+        <v>0.94011976047904189</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>0</v>
@@ -604,15 +604,13 @@
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="3"/>
-      <c r="R2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4">
         <v>640</v>
@@ -632,8 +630,12 @@
         <f t="shared" ref="H3:H4" si="0">B4/C4</f>
         <v>1.0355731225296443</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="1">D4/E4</f>
+        <v>0.99133448873483532</v>
+      </c>
       <c r="J3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="4">
         <v>18634</v>
@@ -652,13 +654,17 @@
         <f>K3/L3</f>
         <v>0.90800116947665921</v>
       </c>
+      <c r="Q3">
+        <f>M3/N3</f>
+        <v>0.92571024734982332</v>
+      </c>
       <c r="R3" s="10"/>
       <c r="S3" s="11"/>
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4">
         <v>786</v>
@@ -678,8 +684,12 @@
         <f t="shared" si="0"/>
         <v>0.70206489675516226</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.74312463428905795</v>
+      </c>
       <c r="J4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="4">
         <v>22530</v>
@@ -695,8 +705,12 @@
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4">
-        <f t="shared" ref="P4:P5" si="1">K4/L4</f>
+        <f t="shared" ref="P4:P5" si="2">K4/L4</f>
         <v>0.87122969837587005</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q5" si="3">M4/N4</f>
+        <v>0.89244401995118328</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="11"/>
@@ -704,7 +718,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>952</v>
@@ -713,15 +727,15 @@
         <v>1356</v>
       </c>
       <c r="D5" s="4">
-        <v>1588</v>
+        <v>1270</v>
       </c>
       <c r="E5" s="4">
-        <v>2062</v>
+        <v>1709</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="J5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="4">
         <v>25888</v>
@@ -730,15 +744,19 @@
         <v>28452</v>
       </c>
       <c r="M5" s="4">
-        <v>43852</v>
+        <v>34870</v>
       </c>
       <c r="N5" s="4">
-        <v>48972</v>
+        <v>38712</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90988331224518493</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>0.90075428807604874</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="11"/>
@@ -832,7 +850,7 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -849,7 +867,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="J12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>0</v>
@@ -871,7 +889,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>756</v>
@@ -891,8 +909,12 @@
         <f>B13/C13</f>
         <v>0.72137404580152675</v>
       </c>
+      <c r="I13">
+        <f>D13/E13</f>
+        <v>0.76995012468827928</v>
+      </c>
       <c r="J13" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="4">
         <v>55588</v>
@@ -911,13 +933,17 @@
         <f>K13/L13</f>
         <v>0.94834174969291662</v>
       </c>
+      <c r="Q13">
+        <f>M13/N13</f>
+        <v>0.98235758883835655</v>
+      </c>
       <c r="R13" s="10"/>
       <c r="S13" s="11"/>
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4">
         <v>1422</v>
@@ -934,11 +960,15 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14">
-        <f t="shared" ref="H14:H15" si="2">B14/C14</f>
+        <f t="shared" ref="H14:H15" si="4">B14/C14</f>
         <v>0.91860465116279066</v>
       </c>
+      <c r="I14">
+        <f t="shared" ref="I14:I15" si="5">D14/E14</f>
+        <v>0.92318702290076338</v>
+      </c>
       <c r="J14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="4">
         <v>63288</v>
@@ -954,8 +984,12 @@
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4">
-        <f t="shared" ref="P14:P15" si="3">K14/L14</f>
+        <f t="shared" ref="P14:P15" si="6">K14/L14</f>
         <v>1.0300278306723305</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q15" si="7">M14/N14</f>
+        <v>1.0079045241227842</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="11"/>
@@ -963,7 +997,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>1580</v>
@@ -972,19 +1006,23 @@
         <v>1412</v>
       </c>
       <c r="D15" s="4">
-        <v>2420</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="4">
-        <v>2458</v>
+        <v>1935</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1189801699716715</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>1.0335917312661498</v>
+      </c>
       <c r="J15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" s="4">
         <v>72252</v>
@@ -993,15 +1031,19 @@
         <v>87652</v>
       </c>
       <c r="M15" s="4">
-        <v>125980</v>
+        <v>99116</v>
       </c>
       <c r="N15" s="4">
-        <v>146266</v>
+        <v>116959</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.82430520695477572</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>0.84744226609324635</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="11"/>
@@ -1117,7 +1159,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
       <c r="J23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>0</v>
@@ -1139,7 +1181,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="4">
         <v>161288</v>
@@ -1159,8 +1201,12 @@
         <f>B24/C24</f>
         <v>0.78233622103006373</v>
       </c>
+      <c r="I24">
+        <f>D24/E24</f>
+        <v>0.81118789744185371</v>
+      </c>
       <c r="J24" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K24" s="4">
         <v>102180</v>
@@ -1179,18 +1225,22 @@
         <f>K24/L24</f>
         <v>0.99159598625856415</v>
       </c>
+      <c r="Q24">
+        <f>M24/N24</f>
+        <v>0.99855999013845387</v>
+      </c>
       <c r="R24" s="10"/>
       <c r="S24" s="11"/>
       <c r="T24" s="10"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4">
         <v>204321</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>268515</v>
       </c>
       <c r="D25" s="5">
@@ -1202,11 +1252,15 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25">
-        <f t="shared" ref="H25:H26" si="4">B25/C25</f>
+        <f t="shared" ref="H25:H26" si="8">B25/C25</f>
         <v>0.76092955700798837</v>
       </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I26" si="9">D25/E25</f>
+        <v>0.77968258098087684</v>
+      </c>
       <c r="J25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="4">
         <v>121038</v>
@@ -1222,8 +1276,12 @@
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4">
-        <f t="shared" ref="P25:P26" si="5">K25/L25</f>
+        <f t="shared" ref="P25:P26" si="10">K25/L25</f>
         <v>0.98926049431149465</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q26" si="11">M25/N25</f>
+        <v>1.0041097252449815</v>
       </c>
       <c r="R25" s="10"/>
       <c r="S25" s="11"/>
@@ -1231,28 +1289,32 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="4">
         <v>244460</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>313156</v>
       </c>
       <c r="D26" s="5">
-        <v>407568</v>
+        <v>326014</v>
       </c>
       <c r="E26" s="5">
-        <v>519312</v>
+        <v>416234</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.7806332945880009</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>0.78324692360547188</v>
+      </c>
       <c r="J26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K26" s="4">
         <v>138708</v>
@@ -1261,15 +1323,19 @@
         <v>159520</v>
       </c>
       <c r="M26" s="4">
-        <v>237654</v>
+        <v>81513</v>
       </c>
       <c r="N26" s="4">
-        <v>262564</v>
+        <v>92132</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.86953360080240727</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="11"/>
+        <v>0.88474145790821868</v>
       </c>
       <c r="R26" s="10"/>
       <c r="S26" s="11"/>
@@ -1351,10 +1417,10 @@
       <c r="S30" s="11"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1">
+    <row r="33" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:17" ht="15.75" thickBot="1">
       <c r="A34" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>0</v>
@@ -1371,7 +1437,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
       <c r="J34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>0</v>
@@ -1388,9 +1454,9 @@
       <c r="O34" s="2"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:17">
       <c r="A35" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="4">
         <v>15682</v>
@@ -1410,8 +1476,12 @@
         <f>B35/C35</f>
         <v>0.83441523890603386</v>
       </c>
+      <c r="I35">
+        <f>D35/E35</f>
+        <v>0.86650085496657858</v>
+      </c>
       <c r="J35" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" s="4">
         <v>44456</v>
@@ -1430,10 +1500,14 @@
         <f>K35/L35</f>
         <v>0.96433839479392625</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <f>M35/N35</f>
+        <v>0.90902328706314262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="4">
         <v>19428</v>
@@ -1450,11 +1524,15 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36">
-        <f t="shared" ref="H36:H37" si="6">B36/C36</f>
+        <f t="shared" ref="H36:H37" si="12">B36/C36</f>
         <v>0.82707535121328224</v>
       </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I37" si="13">D36/E36</f>
+        <v>0.84184624344787418</v>
+      </c>
       <c r="J36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K36" s="4">
         <v>54018</v>
@@ -1470,13 +1548,17 @@
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="4">
-        <f t="shared" ref="P36:P37" si="7">K36/L36</f>
+        <f t="shared" ref="P36:P37" si="14">K36/L36</f>
         <v>0.92008175779253965</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <f t="shared" ref="Q36:Q37" si="15">M36/N36</f>
+        <v>0.95342180892076922</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="4">
         <v>22560</v>
@@ -1485,19 +1567,23 @@
         <v>26092</v>
       </c>
       <c r="D37" s="4">
-        <v>38236</v>
+        <v>30398</v>
       </c>
       <c r="E37" s="4">
-        <v>44884</v>
+        <v>35488</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.86463283765138743</v>
       </c>
+      <c r="I37">
+        <f t="shared" si="13"/>
+        <v>0.85657123534715962</v>
+      </c>
       <c r="J37" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K37" s="4">
         <v>60672</v>
@@ -1506,18 +1592,22 @@
         <v>69084</v>
       </c>
       <c r="M37" s="4">
-        <v>102354</v>
+        <v>188181</v>
       </c>
       <c r="N37" s="4">
-        <v>115180</v>
+        <v>211042</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.87823519194024668</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <f t="shared" si="15"/>
+        <v>0.89167559064072555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="9"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1533,7 +1623,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17">
       <c r="A39" s="9"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1549,7 +1639,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:17">
       <c r="A40" s="9"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1565,7 +1655,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:17">
       <c r="A41" s="9"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1580,6 +1670,42 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="H42">
+        <f>AVERAGE(H2:H37)</f>
+        <v>0.85400231977681473</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE(I2:I37)</f>
+        <v>0.86169529151232849</v>
+      </c>
+      <c r="P42">
+        <f>AVERAGE(P3:P37)</f>
+        <v>0.92540286610974298</v>
+      </c>
+      <c r="Q42">
+        <f>AVERAGE(Q3:Q37)</f>
+        <v>0.93317873286231101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="H44">
+        <f>1-H42</f>
+        <v>0.14599768022318527</v>
+      </c>
+      <c r="I44">
+        <f>1-I42</f>
+        <v>0.13830470848767151</v>
+      </c>
+      <c r="P44">
+        <f>1-P42</f>
+        <v>7.4597133890257017E-2</v>
+      </c>
+      <c r="Q44">
+        <f>1-Q42</f>
+        <v>6.6821267137688989E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/journal-evaluation/diff-ec.xlsx
+++ b/journal-evaluation/diff-ec.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="30">
   <si>
     <t>caso-rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,48 @@
   <si>
     <t>Number of parity updates with different erasure codes (ratio=0.5, tm_dis=3), 其中lrc分别为（4,2,2），（6,2,3），（8,2,4）, 三个参数的意思是k,l,m
 time_distance=4</t>
+  </si>
+  <si>
+    <t>wdev3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS(4,2) </t>
+  </si>
+  <si>
+    <t>RS(6,3)</t>
+  </si>
+  <si>
+    <t>RS(8,4)</t>
+  </si>
+  <si>
+    <t>LRC(4,2,2)</t>
+  </si>
+  <si>
+    <t>LRC(6,2,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRC(8,2,4) </t>
+  </si>
+  <si>
+    <t>wdev1</t>
+  </si>
+  <si>
+    <t>wdev2</t>
+  </si>
+  <si>
+    <t>rsrch1</t>
+  </si>
+  <si>
+    <t>src21</t>
+  </si>
+  <si>
+    <t>web2</t>
+  </si>
+  <si>
+    <t>proj4</t>
+  </si>
+  <si>
+    <t>hm1</t>
   </si>
 </sst>
 </file>
@@ -223,9 +265,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -234,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,18 +592,18 @@
     <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:28" ht="120" customHeight="1" thickBot="1">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -604,11 +646,25 @@
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="3"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="R2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="13"/>
       <c r="T2" s="14"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="13"/>
+      <c r="X2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="13"/>
+      <c r="AA2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="13"/>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -658,11 +714,32 @@
         <f>M3/N3</f>
         <v>0.92571024734982332</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="10"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="R3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="4">
+        <v>640</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="4">
+        <v>756</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>161288</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>15682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -712,11 +789,32 @@
         <f t="shared" ref="Q4:Q5" si="3">M4/N4</f>
         <v>0.89244401995118328</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="10"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="R4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="4">
+        <v>710</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1048</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>206162</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>18794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -758,11 +856,32 @@
         <f t="shared" si="3"/>
         <v>0.90075428807604874</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="R5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="4">
+        <v>786</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1422</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>204321</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>19428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="9"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -777,11 +896,32 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="R6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="4">
+        <v>759</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1548</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>268515</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>23490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="9"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -796,11 +936,32 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="R7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="4">
+        <v>952</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1580</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>244460</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>22560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -815,11 +976,32 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="R8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1356</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1412</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>313156</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>26092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -834,21 +1016,84 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="R10" s="10"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1">
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1">
+      <c r="R9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1099</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1235</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>279365</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>27871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="R10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1169</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1604</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>344390</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>32165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" thickBot="1">
+      <c r="R11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1144</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1935</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>299671</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>28909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -883,11 +1128,32 @@
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="3"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="R12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1154</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="4">
+        <v>2096</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>384350</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>34340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -937,11 +1203,32 @@
         <f>M13/N13</f>
         <v>0.98235758883835655</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="R13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1270</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>326014</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>30398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -991,11 +1278,32 @@
         <f t="shared" ref="Q14:Q15" si="7">M14/N14</f>
         <v>1.0079045241227842</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="R14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1709</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1935</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>416234</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>35488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1045,11 +1353,8 @@
         <f t="shared" si="7"/>
         <v>0.84744226609324635</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="10"/>
-    </row>
-    <row r="16" spans="1:20">
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1064,11 +1369,8 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="1:20">
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1083,11 +1385,8 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1102,11 +1401,24 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="10"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="R18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="U18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="13"/>
+      <c r="X18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" s="13"/>
+      <c r="AA18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB18" s="13"/>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1121,26 +1433,110 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="10"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="R20" s="10"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="10"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="R21" s="10"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="10"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1">
-      <c r="R22" s="10"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="10"/>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1">
+      <c r="R19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="4">
+        <v>18634</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" s="4">
+        <v>55588</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>102180</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="R20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="4">
+        <v>20522</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="4">
+        <v>58616</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>103046</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>46100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="R21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" s="4">
+        <v>22530</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="4">
+        <v>63288</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>121038</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>54018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" thickBot="1">
+      <c r="R22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="4">
+        <v>25860</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V22" s="4">
+        <v>61443</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>122352</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>58710</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1175,11 +1571,32 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="3"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="R23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="4">
+        <v>25888</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="4">
+        <v>72252</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>138708</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>60672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
@@ -1229,11 +1646,32 @@
         <f>M24/N24</f>
         <v>0.99855999013845387</v>
       </c>
-      <c r="R24" s="10"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="10"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="R24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="4">
+        <v>28452</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="4">
+        <v>87652</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>159520</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>69084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -1283,11 +1721,32 @@
         <f t="shared" ref="Q25:Q26" si="11">M25/N25</f>
         <v>1.0041097252449815</v>
       </c>
-      <c r="R25" s="10"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="10"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="R25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="4">
+        <v>32747</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="4">
+        <v>101953</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>178214</v>
+      </c>
+      <c r="AA25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>75768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -1337,11 +1796,32 @@
         <f t="shared" si="11"/>
         <v>0.88474145790821868</v>
       </c>
-      <c r="R26" s="10"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="R26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="4">
+        <v>35375</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="4">
+        <v>103784</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>178471</v>
+      </c>
+      <c r="AA26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>83351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="9"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1356,11 +1836,32 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="R27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="4">
+        <v>33638</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="4">
+        <v>97290</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>181778</v>
+      </c>
+      <c r="AA27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>81611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1375,11 +1876,32 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="R28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="4">
+        <v>37692</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="4">
+        <v>96527</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>181034</v>
+      </c>
+      <c r="AA28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>85598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1394,11 +1916,32 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="10"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="R29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="4">
+        <v>34870</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V29" s="4">
+        <v>99116</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>81513</v>
+      </c>
+      <c r="AA29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>188181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="9"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1413,9 +1956,30 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="10"/>
+      <c r="R30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="4">
+        <v>38712</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V30" s="4">
+        <v>116959</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>92132</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>211042</v>
+      </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="34" spans="1:17" ht="15.75" thickBot="1">
@@ -1708,9 +2272,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="X2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-ec.xlsx
+++ b/journal-evaluation/diff-ec.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zrshen.CSDOMAIN.008\Desktop\caso-tpds\journal-evaluation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="41">
   <si>
     <t>caso-rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,61 +76,107 @@
     <t>wdev3</t>
   </si>
   <si>
-    <t xml:space="preserve">RS(4,2) </t>
+    <t>LRC(4,2,2)</t>
+  </si>
+  <si>
+    <t>LRC(6,2,3)</t>
+  </si>
+  <si>
+    <t>wdev1</t>
+  </si>
+  <si>
+    <t>wdev2</t>
+  </si>
+  <si>
+    <t>rsrch1</t>
+  </si>
+  <si>
+    <t>src21</t>
+  </si>
+  <si>
+    <t>web2</t>
+  </si>
+  <si>
+    <t>proj4</t>
+  </si>
+  <si>
+    <t>hm1</t>
+  </si>
+  <si>
+    <t>RS(4,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RS(6,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RS(8,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LRC(4,2,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC(8,2,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(4,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(6,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(8,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC(4,2,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LRC(6,2,3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRC(8,2,4) </t>
-  </si>
-  <si>
-    <t>wdev1</t>
-  </si>
-  <si>
-    <t>wdev2</t>
-  </si>
-  <si>
-    <t>rsrch1</t>
-  </si>
-  <si>
-    <t>src21</t>
-  </si>
-  <si>
-    <t>web2</t>
-  </si>
-  <si>
-    <t>proj4</t>
-  </si>
-  <si>
-    <t>hm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC(8,2,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASO</t>
+  </si>
+  <si>
+    <t>CASO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSO</t>
+  </si>
+  <si>
+    <t>BSO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -144,7 +185,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -153,20 +194,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +217,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,7 +351,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -274,12 +405,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -295,7 +426,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -337,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,7 +503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,29 +712,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29:AC30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:29" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -646,25 +777,28 @@
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="3"/>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="13"/>
-      <c r="X2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="13"/>
-      <c r="AA2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" s="13"/>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -715,31 +849,43 @@
         <v>0.92571024734982332</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="4">
+        <v>26</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="12">
         <v>640</v>
       </c>
-      <c r="U3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="4">
+      <c r="U3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="28">
         <v>756</v>
       </c>
-      <c r="X3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="4">
+      <c r="X3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="16">
         <v>161288</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="4">
+      <c r="AA3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="18">
         <v>15682</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -790,31 +936,43 @@
         <v>0.89244401995118328</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="4">
+        <v>26</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="12">
         <v>710</v>
       </c>
-      <c r="U4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="4">
+      <c r="U4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="28">
         <v>1048</v>
       </c>
-      <c r="X4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="4">
+      <c r="X4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="16">
         <v>206162</v>
       </c>
-      <c r="AA4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB4" s="4">
+      <c r="AA4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="18">
         <v>18794</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -857,31 +1015,43 @@
         <v>0.90075428807604874</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="4">
+        <v>27</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="12">
         <v>786</v>
       </c>
-      <c r="U5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="4">
+      <c r="U5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="28">
         <v>1422</v>
       </c>
-      <c r="X5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y5" s="4">
+      <c r="X5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="16">
         <v>204321</v>
       </c>
-      <c r="AA5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB5" s="4">
+      <c r="AA5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="18">
         <v>19428</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -897,31 +1067,43 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="R6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="4">
+        <v>27</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="12">
         <v>759</v>
       </c>
-      <c r="U6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="4">
+      <c r="U6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="28">
         <v>1548</v>
       </c>
-      <c r="X6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y6" s="5">
+      <c r="X6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="15">
         <v>268515</v>
       </c>
-      <c r="AA6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB6" s="4">
+      <c r="AA6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="18">
         <v>23490</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -937,31 +1119,43 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="R7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="4">
+        <v>28</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="12">
         <v>952</v>
       </c>
-      <c r="U7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="4">
+      <c r="U7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="28">
         <v>1580</v>
       </c>
-      <c r="X7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y7" s="4">
+      <c r="X7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="16">
         <v>244460</v>
       </c>
-      <c r="AA7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB7" s="4">
+      <c r="AA7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" s="18">
         <v>22560</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -977,31 +1171,43 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="R8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="4">
+        <v>28</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="12">
         <v>1356</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8" s="4">
+      <c r="U8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="28">
         <v>1412</v>
       </c>
-      <c r="X8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" s="5">
+      <c r="X8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z8" s="15">
         <v>313156</v>
       </c>
-      <c r="AA8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB8" s="4">
+      <c r="AA8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="18">
         <v>26092</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1017,83 +1223,119 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="R9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="4">
+        <v>17</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="12">
         <v>1099</v>
       </c>
-      <c r="U9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="4">
+      <c r="U9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="28">
         <v>1235</v>
       </c>
-      <c r="X9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="5">
+      <c r="X9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" s="15">
         <v>279365</v>
       </c>
-      <c r="AA9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB9" s="4">
+      <c r="AA9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC9" s="18">
         <v>27871</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="R10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="4">
+        <v>29</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="12">
         <v>1169</v>
       </c>
-      <c r="U10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="4">
+      <c r="U10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="28">
         <v>1604</v>
       </c>
-      <c r="X10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y10" s="5">
+      <c r="X10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="15">
         <v>344390</v>
       </c>
-      <c r="AA10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB10" s="4">
+      <c r="AA10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC10" s="18">
         <v>32165</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1">
+    <row r="11" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="R11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="4">
+        <v>18</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="12">
         <v>1144</v>
       </c>
-      <c r="U11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="V11" s="4">
+      <c r="U11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="28">
         <v>1935</v>
       </c>
-      <c r="X11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y11" s="5">
+      <c r="X11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" s="15">
         <v>299671</v>
       </c>
-      <c r="AA11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB11" s="4">
+      <c r="AA11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC11" s="18">
         <v>28909</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" thickBot="1">
+    <row r="12" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1129,31 +1371,43 @@
       <c r="O12" s="4"/>
       <c r="P12" s="3"/>
       <c r="R12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="4">
+        <v>18</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="12">
         <v>1154</v>
       </c>
-      <c r="U12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="4">
+      <c r="U12" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="28">
         <v>2096</v>
       </c>
-      <c r="X12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y12" s="5">
+      <c r="X12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="15">
         <v>384350</v>
       </c>
-      <c r="AA12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB12" s="4">
+      <c r="AA12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC12" s="18">
         <v>34340</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1204,31 +1458,43 @@
         <v>0.98235758883835655</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="4">
+        <v>30</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="12">
         <v>1270</v>
       </c>
-      <c r="U13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="V13" s="4">
+      <c r="U13" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="28">
         <v>2000</v>
       </c>
-      <c r="X13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y13" s="5">
+      <c r="X13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="15">
         <v>326014</v>
       </c>
-      <c r="AA13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB13" s="4">
+      <c r="AA13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC13" s="18">
         <v>30398</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1279,31 +1545,43 @@
         <v>1.0079045241227842</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S14" s="4">
+        <v>30</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="12">
         <v>1709</v>
       </c>
-      <c r="U14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="V14" s="4">
+      <c r="U14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="28">
         <v>1935</v>
       </c>
-      <c r="X14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y14" s="5">
+      <c r="X14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" s="15">
         <v>416234</v>
       </c>
-      <c r="AA14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB14" s="4">
+      <c r="AA14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC14" s="18">
         <v>35488</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1354,7 +1632,7 @@
         <v>0.84744226609324635</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1370,7 +1648,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1386,7 +1664,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1401,24 +1679,28 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="R18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" s="13"/>
-      <c r="U18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="V18" s="13"/>
-      <c r="X18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" s="13"/>
-      <c r="AA18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB18" s="13"/>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="R18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1433,110 +1715,158 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="R19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="4">
+      <c r="R19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="14">
         <v>18634</v>
       </c>
-      <c r="U19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V19" s="4">
+      <c r="U19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="20">
         <v>55588</v>
       </c>
-      <c r="X19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y19" s="4">
+      <c r="X19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z19" s="22">
         <v>102180</v>
       </c>
-      <c r="AA19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB19" s="4">
+      <c r="AA19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC19" s="24">
         <v>44456</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
-      <c r="R20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S20" s="4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="R20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="14">
         <v>20522</v>
       </c>
-      <c r="U20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="4">
+      <c r="U20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="20">
         <v>58616</v>
       </c>
-      <c r="X20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y20" s="4">
+      <c r="X20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" s="22">
         <v>103046</v>
       </c>
-      <c r="AA20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB20" s="4">
+      <c r="AA20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" s="24">
         <v>46100</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
-      <c r="R21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S21" s="4">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="R21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" s="14">
         <v>22530</v>
       </c>
-      <c r="U21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="V21" s="4">
+      <c r="U21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W21" s="20">
         <v>63288</v>
       </c>
-      <c r="X21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y21" s="4">
+      <c r="X21" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z21" s="22">
         <v>121038</v>
       </c>
-      <c r="AA21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB21" s="4">
+      <c r="AA21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC21" s="24">
         <v>54018</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1">
-      <c r="R22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S22" s="4">
+    <row r="22" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="R22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="14">
         <v>25860</v>
       </c>
-      <c r="U22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="V22" s="4">
+      <c r="U22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="20">
         <v>61443</v>
       </c>
-      <c r="X22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y22" s="4">
+      <c r="X22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z22" s="22">
         <v>122352</v>
       </c>
-      <c r="AA22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB22" s="4">
+      <c r="AA22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC22" s="24">
         <v>58710</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1">
+    <row r="23" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1571,32 +1901,44 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="3"/>
-      <c r="R23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S23" s="4">
+      <c r="R23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T23" s="14">
         <v>25888</v>
       </c>
-      <c r="U23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="V23" s="4">
+      <c r="U23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="20">
         <v>72252</v>
       </c>
-      <c r="X23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y23" s="4">
+      <c r="X23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z23" s="22">
         <v>138708</v>
       </c>
-      <c r="AA23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB23" s="4">
+      <c r="AA23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB23" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC23" s="24">
         <v>60672</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
@@ -1646,32 +1988,44 @@
         <f>M24/N24</f>
         <v>0.99855999013845387</v>
       </c>
-      <c r="R24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S24" s="4">
+      <c r="R24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" s="14">
         <v>28452</v>
       </c>
-      <c r="U24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" s="4">
+      <c r="U24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="V24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" s="20">
         <v>87652</v>
       </c>
-      <c r="X24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y24" s="4">
+      <c r="X24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z24" s="22">
         <v>159520</v>
       </c>
-      <c r="AA24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB24" s="4">
+      <c r="AA24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC24" s="24">
         <v>69084</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -1721,32 +2075,44 @@
         <f t="shared" ref="Q25:Q26" si="11">M25/N25</f>
         <v>1.0041097252449815</v>
       </c>
-      <c r="R25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S25" s="4">
+      <c r="R25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="14">
         <v>32747</v>
       </c>
-      <c r="U25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="V25" s="4">
+      <c r="U25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" s="20">
         <v>101953</v>
       </c>
-      <c r="X25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y25" s="4">
+      <c r="X25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z25" s="22">
         <v>178214</v>
       </c>
-      <c r="AA25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB25" s="4">
+      <c r="AA25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC25" s="24">
         <v>75768</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -1796,32 +2162,44 @@
         <f t="shared" si="11"/>
         <v>0.88474145790821868</v>
       </c>
-      <c r="R26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S26" s="4">
+      <c r="R26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="14">
         <v>35375</v>
       </c>
-      <c r="U26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="V26" s="4">
+      <c r="U26" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="20">
         <v>103784</v>
       </c>
-      <c r="X26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y26" s="4">
+      <c r="X26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="22">
         <v>178471</v>
       </c>
-      <c r="AA26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB26" s="4">
+      <c r="AA26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB26" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC26" s="24">
         <v>83351</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1836,32 +2214,44 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="R27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="4">
+      <c r="R27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" s="14">
         <v>33638</v>
       </c>
-      <c r="U27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="V27" s="4">
+      <c r="U27" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W27" s="20">
         <v>97290</v>
       </c>
-      <c r="X27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y27" s="4">
+      <c r="X27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z27" s="22">
         <v>181778</v>
       </c>
-      <c r="AA27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB27" s="4">
+      <c r="AA27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC27" s="24">
         <v>81611</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1876,32 +2266,44 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="R28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="4">
+      <c r="R28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="14">
         <v>37692</v>
       </c>
-      <c r="U28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="V28" s="4">
+      <c r="U28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="V28" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="20">
         <v>96527</v>
       </c>
-      <c r="X28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y28" s="4">
+      <c r="X28" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" s="22">
         <v>181034</v>
       </c>
-      <c r="AA28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB28" s="4">
+      <c r="AA28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB28" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC28" s="24">
         <v>85598</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1916,32 +2318,44 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="R29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S29" s="4">
+      <c r="R29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T29" s="14">
         <v>34870</v>
       </c>
-      <c r="U29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="V29" s="4">
+      <c r="U29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W29" s="20">
         <v>99116</v>
       </c>
-      <c r="X29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y29" s="4">
+      <c r="X29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z29" s="24">
+        <v>188181</v>
+      </c>
+      <c r="AA29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB29" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC29" s="22">
         <v>81513</v>
       </c>
-      <c r="AA29" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB29" s="4">
-        <v>188181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1956,33 +2370,45 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="R30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S30" s="4">
+      <c r="R30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T30" s="14">
         <v>38712</v>
       </c>
-      <c r="U30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="V30" s="4">
+      <c r="U30" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W30" s="20">
         <v>116959</v>
       </c>
-      <c r="X30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y30" s="4">
+      <c r="X30" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" s="24">
+        <v>211042</v>
+      </c>
+      <c r="AA30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB30" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC30" s="22">
         <v>92132</v>
       </c>
-      <c r="AA30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB30" s="4">
-        <v>211042</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1">
+    </row>
+    <row r="33" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2018,7 +2444,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>12</v>
       </c>
@@ -2069,7 +2495,7 @@
         <v>0.90902328706314262</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +2546,7 @@
         <v>0.95342180892076922</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2171,7 +2597,7 @@
         <v>0.89167559064072555</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2187,7 +2613,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2203,7 +2629,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2219,7 +2645,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2235,7 +2661,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H42">
         <f>AVERAGE(H2:H37)</f>
         <v>0.85400231977681473</v>
@@ -2253,7 +2679,7 @@
         <v>0.93317873286231101</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H44">
         <f>1-H42</f>
         <v>0.14599768022318527</v>
@@ -2273,15 +2699,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="R18:T18"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2295,7 +2721,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2308,7 +2734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-ec.xlsx
+++ b/journal-evaluation/diff-ec.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zrshen.CSDOMAIN.008\Desktop\caso-tpds\journal-evaluation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="30">
   <si>
     <t>caso-rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,12 +81,24 @@
     <t>wdev3</t>
   </si>
   <si>
+    <t xml:space="preserve">RS(4,2) </t>
+  </si>
+  <si>
+    <t>RS(6,3)</t>
+  </si>
+  <si>
+    <t>RS(8,4)</t>
+  </si>
+  <si>
     <t>LRC(4,2,2)</t>
   </si>
   <si>
     <t>LRC(6,2,3)</t>
   </si>
   <si>
+    <t xml:space="preserve">LRC(8,2,4) </t>
+  </si>
+  <si>
     <t>wdev1</t>
   </si>
   <si>
@@ -101,82 +118,24 @@
   </si>
   <si>
     <t>hm1</t>
-  </si>
-  <si>
-    <t>RS(4,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS(6,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS(8,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRC(4,2,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRC(8,2,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS(4,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS(6,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS(8,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRC(4,2,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRC(6,2,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRC(8,2,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CASO</t>
-  </si>
-  <si>
-    <t>CASO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSO</t>
-  </si>
-  <si>
-    <t>BSO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,7 +144,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -194,20 +153,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,54 +176,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,49 +262,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -405,12 +274,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,7 +295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,7 +372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,29 +581,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC44"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29:AC30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:28" ht="120" customHeight="1" thickBot="1">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,28 +646,25 @@
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="3"/>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="S2" s="13"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="13"/>
+      <c r="X2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="13"/>
+      <c r="AA2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="13"/>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -849,43 +715,31 @@
         <v>0.92571024734982332</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="12">
+        <v>17</v>
+      </c>
+      <c r="S3" s="4">
         <v>640</v>
       </c>
-      <c r="U3" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="28">
+      <c r="U3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="4">
         <v>756</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="16">
+      <c r="X3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="4">
         <v>161288</v>
       </c>
-      <c r="AA3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="18">
+      <c r="AA3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="4">
         <v>15682</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -936,43 +790,31 @@
         <v>0.89244401995118328</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="12">
+        <v>17</v>
+      </c>
+      <c r="S4" s="4">
         <v>710</v>
       </c>
-      <c r="U4" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="28">
+      <c r="U4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" s="4">
         <v>1048</v>
       </c>
-      <c r="X4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="16">
+      <c r="X4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="4">
         <v>206162</v>
       </c>
-      <c r="AA4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="18">
+      <c r="AA4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" s="4">
         <v>18794</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1015,43 +857,31 @@
         <v>0.90075428807604874</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="12">
+        <v>18</v>
+      </c>
+      <c r="S5" s="4">
         <v>786</v>
       </c>
-      <c r="U5" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" s="28">
+      <c r="U5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="4">
         <v>1422</v>
       </c>
-      <c r="X5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="16">
+      <c r="X5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="4">
         <v>204321</v>
       </c>
-      <c r="AA5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC5" s="18">
+      <c r="AA5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="4">
         <v>19428</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28">
       <c r="A6" s="9"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1067,43 +897,31 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="R6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="12">
+        <v>18</v>
+      </c>
+      <c r="S6" s="4">
         <v>759</v>
       </c>
-      <c r="U6" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="28">
+      <c r="U6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4">
         <v>1548</v>
       </c>
-      <c r="X6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z6" s="15">
+      <c r="X6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="5">
         <v>268515</v>
       </c>
-      <c r="AA6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" s="18">
+      <c r="AA6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="4">
         <v>23490</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28">
       <c r="A7" s="9"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1119,43 +937,31 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="R7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="12">
+        <v>19</v>
+      </c>
+      <c r="S7" s="4">
         <v>952</v>
       </c>
-      <c r="U7" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="W7" s="28">
+      <c r="U7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="4">
         <v>1580</v>
       </c>
-      <c r="X7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" s="16">
+      <c r="X7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="4">
         <v>244460</v>
       </c>
-      <c r="AA7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC7" s="18">
+      <c r="AA7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" s="4">
         <v>22560</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28">
       <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1171,43 +977,31 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="R8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="12">
+        <v>19</v>
+      </c>
+      <c r="S8" s="4">
         <v>1356</v>
       </c>
-      <c r="U8" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="28">
+      <c r="U8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="4">
         <v>1412</v>
       </c>
-      <c r="X8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z8" s="15">
+      <c r="X8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="5">
         <v>313156</v>
       </c>
-      <c r="AA8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC8" s="18">
+      <c r="AA8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="4">
         <v>26092</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1223,119 +1017,83 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="R9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="12">
+        <v>20</v>
+      </c>
+      <c r="S9" s="4">
         <v>1099</v>
       </c>
-      <c r="U9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="W9" s="28">
+      <c r="U9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="4">
         <v>1235</v>
       </c>
-      <c r="X9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z9" s="15">
+      <c r="X9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="5">
         <v>279365</v>
       </c>
-      <c r="AA9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC9" s="18">
+      <c r="AA9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="4">
         <v>27871</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28">
       <c r="R10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="12">
+        <v>20</v>
+      </c>
+      <c r="S10" s="4">
         <v>1169</v>
       </c>
-      <c r="U10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="V10" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="W10" s="28">
+      <c r="U10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="4">
         <v>1604</v>
       </c>
-      <c r="X10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z10" s="15">
+      <c r="X10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="5">
         <v>344390</v>
       </c>
-      <c r="AA10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC10" s="18">
+      <c r="AA10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="4">
         <v>32165</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15.75" thickBot="1">
       <c r="R11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" s="12">
+        <v>21</v>
+      </c>
+      <c r="S11" s="4">
         <v>1144</v>
       </c>
-      <c r="U11" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="W11" s="28">
+      <c r="U11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="4">
         <v>1935</v>
       </c>
-      <c r="X11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z11" s="15">
+      <c r="X11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="5">
         <v>299671</v>
       </c>
-      <c r="AA11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC11" s="18">
+      <c r="AA11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB11" s="4">
         <v>28909</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1371,43 +1129,31 @@
       <c r="O12" s="4"/>
       <c r="P12" s="3"/>
       <c r="R12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" s="12">
+        <v>21</v>
+      </c>
+      <c r="S12" s="4">
         <v>1154</v>
       </c>
-      <c r="U12" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V12" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" s="28">
+      <c r="U12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="4">
         <v>2096</v>
       </c>
-      <c r="X12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z12" s="15">
+      <c r="X12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="5">
         <v>384350</v>
       </c>
-      <c r="AA12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC12" s="18">
+      <c r="AA12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB12" s="4">
         <v>34340</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1458,43 +1204,31 @@
         <v>0.98235758883835655</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="12">
+        <v>22</v>
+      </c>
+      <c r="S13" s="4">
         <v>1270</v>
       </c>
-      <c r="U13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="28">
+      <c r="U13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" s="4">
         <v>2000</v>
       </c>
-      <c r="X13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z13" s="15">
+      <c r="X13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="5">
         <v>326014</v>
       </c>
-      <c r="AA13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC13" s="18">
+      <c r="AA13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="4">
         <v>30398</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1545,43 +1279,31 @@
         <v>1.0079045241227842</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="T14" s="12">
+        <v>22</v>
+      </c>
+      <c r="S14" s="4">
         <v>1709</v>
       </c>
-      <c r="U14" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="W14" s="28">
+      <c r="U14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" s="4">
         <v>1935</v>
       </c>
-      <c r="X14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z14" s="15">
+      <c r="X14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="5">
         <v>416234</v>
       </c>
-      <c r="AA14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC14" s="18">
+      <c r="AA14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="4">
         <v>35488</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1632,7 +1354,7 @@
         <v>0.84744226609324635</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1648,7 +1370,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1664,7 +1386,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1679,28 +1401,24 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="R18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="R18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="U18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="13"/>
+      <c r="X18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" s="13"/>
+      <c r="AA18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB18" s="13"/>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1715,158 +1433,110 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="R19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T19" s="14">
+      <c r="R19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="4">
         <v>18634</v>
       </c>
-      <c r="U19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="W19" s="20">
+      <c r="U19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" s="4">
         <v>55588</v>
       </c>
-      <c r="X19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y19" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z19" s="22">
+      <c r="X19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y19" s="4">
         <v>102180</v>
       </c>
-      <c r="AA19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC19" s="24">
+      <c r="AA19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB19" s="4">
         <v>44456</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="R20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="T20" s="14">
+    <row r="20" spans="1:28">
+      <c r="R20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="4">
         <v>20522</v>
       </c>
-      <c r="U20" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="20">
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="4">
         <v>58616</v>
       </c>
-      <c r="X20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z20" s="22">
+      <c r="X20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="4">
         <v>103046</v>
       </c>
-      <c r="AA20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB20" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC20" s="24">
+      <c r="AA20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB20" s="4">
         <v>46100</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="R21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T21" s="14">
+    <row r="21" spans="1:28">
+      <c r="R21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" s="4">
         <v>22530</v>
       </c>
-      <c r="U21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="V21" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="W21" s="20">
+      <c r="U21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="4">
         <v>63288</v>
       </c>
-      <c r="X21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y21" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z21" s="22">
+      <c r="X21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="4">
         <v>121038</v>
       </c>
-      <c r="AA21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC21" s="24">
+      <c r="AA21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB21" s="4">
         <v>54018</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="R22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="14">
+    <row r="22" spans="1:28" ht="15.75" thickBot="1">
+      <c r="R22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="4">
         <v>25860</v>
       </c>
-      <c r="U22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="V22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="W22" s="20">
+      <c r="U22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V22" s="4">
         <v>61443</v>
       </c>
-      <c r="X22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y22" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z22" s="22">
+      <c r="X22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y22" s="4">
         <v>122352</v>
       </c>
-      <c r="AA22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB22" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC22" s="24">
+      <c r="AA22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB22" s="4">
         <v>58710</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="15.75" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1901,44 +1571,32 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="3"/>
-      <c r="R23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T23" s="14">
+      <c r="R23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="4">
         <v>25888</v>
       </c>
-      <c r="U23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="V23" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="W23" s="20">
+      <c r="U23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="4">
         <v>72252</v>
       </c>
-      <c r="X23" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z23" s="22">
+      <c r="X23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="4">
         <v>138708</v>
       </c>
-      <c r="AA23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC23" s="24">
+      <c r="AA23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB23" s="4">
         <v>60672</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28">
       <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
@@ -1988,44 +1646,32 @@
         <f>M24/N24</f>
         <v>0.99855999013845387</v>
       </c>
-      <c r="R24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="T24" s="14">
+      <c r="R24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="4">
         <v>28452</v>
       </c>
-      <c r="U24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="V24" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="W24" s="20">
+      <c r="U24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="4">
         <v>87652</v>
       </c>
-      <c r="X24" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y24" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z24" s="22">
+      <c r="X24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="4">
         <v>159520</v>
       </c>
-      <c r="AA24" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB24" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC24" s="24">
+      <c r="AA24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB24" s="4">
         <v>69084</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -2075,44 +1721,32 @@
         <f t="shared" ref="Q25:Q26" si="11">M25/N25</f>
         <v>1.0041097252449815</v>
       </c>
-      <c r="R25" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T25" s="14">
+      <c r="R25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="4">
         <v>32747</v>
       </c>
-      <c r="U25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="V25" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="W25" s="20">
+      <c r="U25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="4">
         <v>101953</v>
       </c>
-      <c r="X25" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y25" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z25" s="22">
+      <c r="X25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="4">
         <v>178214</v>
       </c>
-      <c r="AA25" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB25" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC25" s="24">
+      <c r="AA25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="4">
         <v>75768</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -2162,44 +1796,32 @@
         <f t="shared" si="11"/>
         <v>0.88474145790821868</v>
       </c>
-      <c r="R26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="14">
+      <c r="R26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="4">
         <v>35375</v>
       </c>
-      <c r="U26" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="V26" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="W26" s="20">
+      <c r="U26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="4">
         <v>103784</v>
       </c>
-      <c r="X26" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z26" s="22">
+      <c r="X26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="4">
         <v>178471</v>
       </c>
-      <c r="AA26" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB26" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC26" s="24">
+      <c r="AA26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB26" s="4">
         <v>83351</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28">
       <c r="A27" s="9"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2214,44 +1836,32 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="R27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" s="14">
+      <c r="R27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="4">
         <v>33638</v>
       </c>
-      <c r="U27" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="V27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="W27" s="20">
+      <c r="U27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="4">
         <v>97290</v>
       </c>
-      <c r="X27" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z27" s="22">
+      <c r="X27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y27" s="4">
         <v>181778</v>
       </c>
-      <c r="AA27" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB27" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC27" s="24">
+      <c r="AA27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB27" s="4">
         <v>81611</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2266,44 +1876,32 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="R28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="T28" s="14">
+      <c r="R28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="4">
         <v>37692</v>
       </c>
-      <c r="U28" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="V28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="W28" s="20">
+      <c r="U28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="4">
         <v>96527</v>
       </c>
-      <c r="X28" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z28" s="22">
+      <c r="X28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y28" s="4">
         <v>181034</v>
       </c>
-      <c r="AA28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB28" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC28" s="24">
+      <c r="AA28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB28" s="4">
         <v>85598</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28">
       <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2318,44 +1916,32 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="R29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="S29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T29" s="14">
+      <c r="R29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="4">
         <v>34870</v>
       </c>
-      <c r="U29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="V29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="W29" s="20">
+      <c r="U29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V29" s="4">
         <v>99116</v>
       </c>
-      <c r="X29" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y29" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z29" s="24">
+      <c r="X29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>81513</v>
+      </c>
+      <c r="AA29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB29" s="4">
         <v>188181</v>
       </c>
-      <c r="AA29" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB29" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC29" s="22">
-        <v>81513</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="9"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2370,45 +1956,33 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
-      <c r="R30" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="S30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="T30" s="14">
+      <c r="R30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="4">
         <v>38712</v>
       </c>
-      <c r="U30" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="V30" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="W30" s="20">
+      <c r="U30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V30" s="4">
         <v>116959</v>
       </c>
-      <c r="X30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z30" s="24">
+      <c r="X30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>92132</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB30" s="4">
         <v>211042</v>
       </c>
-      <c r="AA30" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB30" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC30" s="22">
-        <v>92132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:17" ht="15.75" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2444,7 +2018,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17">
       <c r="A35" s="9" t="s">
         <v>12</v>
       </c>
@@ -2495,7 +2069,7 @@
         <v>0.90902328706314262</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -2546,7 +2120,7 @@
         <v>0.95342180892076922</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17">
       <c r="A37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2597,7 +2171,7 @@
         <v>0.89167559064072555</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17">
       <c r="A38" s="9"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2613,7 +2187,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17">
       <c r="A39" s="9"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2629,7 +2203,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17">
       <c r="A40" s="9"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2645,7 +2219,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17">
       <c r="A41" s="9"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2661,7 +2235,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17">
       <c r="H42">
         <f>AVERAGE(H2:H37)</f>
         <v>0.85400231977681473</v>
@@ -2679,7 +2253,7 @@
         <v>0.93317873286231101</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17">
       <c r="H44">
         <f>1-H42</f>
         <v>0.14599768022318527</v>
@@ -2699,15 +2273,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="X2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2721,7 +2295,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2734,7 +2308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-ec.xlsx
+++ b/journal-evaluation/diff-ec.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="32">
   <si>
     <t>caso-rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>hm1</t>
+  </si>
+  <si>
+    <t>wdev_0</t>
+  </si>
+  <si>
+    <t>rsrch_2</t>
   </si>
 </sst>
 </file>
@@ -265,17 +271,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X41" sqref="X41:X46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -593,15 +599,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -646,23 +652,23 @@
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="3"/>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="X2" s="13" t="s">
+      <c r="V2" s="12"/>
+      <c r="X2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="13"/>
-      <c r="AA2" s="13" t="s">
+      <c r="Y2" s="12"/>
+      <c r="AA2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="13"/>
+      <c r="AB2" s="12"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="9" t="s">
@@ -1401,22 +1407,22 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="13"/>
-      <c r="U18" s="13" t="s">
+      <c r="S18" s="12"/>
+      <c r="U18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="V18" s="13"/>
-      <c r="X18" s="13" t="s">
+      <c r="V18" s="12"/>
+      <c r="X18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Y18" s="13"/>
-      <c r="AA18" s="13" t="s">
+      <c r="Y18" s="12"/>
+      <c r="AA18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AB18" s="13"/>
+      <c r="AB18" s="12"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="9"/>
@@ -1981,8 +1987,8 @@
         <v>211042</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1">
+    <row r="33" spans="1:24" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2017,8 +2023,16 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="T34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" s="12"/>
+      <c r="W34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X34" s="12"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="9" t="s">
         <v>12</v>
       </c>
@@ -2068,8 +2082,20 @@
         <f>M35/N35</f>
         <v>0.90902328706314262</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="T35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="U35" s="4">
+        <v>71154</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X35" s="4">
+        <v>757364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -2119,8 +2145,20 @@
         <f t="shared" ref="Q36:Q37" si="15">M36/N36</f>
         <v>0.95342180892076922</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="T36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="U36" s="4">
+        <v>84576</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X36" s="4">
+        <v>875730</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2170,8 +2208,20 @@
         <f t="shared" si="15"/>
         <v>0.89167559064072555</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="T37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U37" s="4">
+        <v>92568</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X37" s="4">
+        <v>957870</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="9"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2186,8 +2236,20 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="T38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U38" s="4">
+        <v>97329</v>
+      </c>
+      <c r="W38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X38" s="4">
+        <v>1204059</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="9"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2202,8 +2264,20 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="T39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U39" s="4">
+        <v>120888</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X39" s="4">
+        <v>1171564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="9"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2218,8 +2292,20 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="T40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U40" s="4">
+        <v>158356</v>
+      </c>
+      <c r="W40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X40" s="4">
+        <v>1431584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="9"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2234,8 +2320,20 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="T41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="4">
+        <v>119301</v>
+      </c>
+      <c r="W41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X41" s="4">
+        <v>1291299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="H42">
         <f>AVERAGE(H2:H37)</f>
         <v>0.85400231977681473</v>
@@ -2252,8 +2350,34 @@
         <f>AVERAGE(Q3:Q37)</f>
         <v>0.93317873286231101</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="T42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="4">
+        <v>135715</v>
+      </c>
+      <c r="W42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X42" s="4">
+        <v>1458821</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="T43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" s="4">
+        <v>133336</v>
+      </c>
+      <c r="W43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="X43" s="4">
+        <v>1394437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" thickBot="1">
       <c r="H44">
         <f>1-H42</f>
         <v>0.14599768022318527</v>
@@ -2270,18 +2394,329 @@
         <f>1-Q42</f>
         <v>6.6821267137688989E-2</v>
       </c>
+      <c r="T44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U44" s="4">
+        <v>140190</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="X44" s="4">
+        <v>1707860</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" thickBot="1">
+      <c r="A45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="T45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U45" s="4">
+        <v>156434</v>
+      </c>
+      <c r="W45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X45" s="4">
+        <v>1550878</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4">
+        <v>757364</v>
+      </c>
+      <c r="C46" s="4">
+        <v>875730</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1291299</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1458821</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46">
+        <f>B46/C46</f>
+        <v>0.86483733570849464</v>
+      </c>
+      <c r="I46">
+        <f>D46/E46</f>
+        <v>0.88516617186070123</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U46" s="4">
+        <v>200642</v>
+      </c>
+      <c r="W46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X46" s="4">
+        <v>1869446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4">
+        <v>957870</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1204059</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1394437</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1707860</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47">
+        <f t="shared" ref="H47:H48" si="16">B47/C47</f>
+        <v>0.79553410588683782</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47:I48" si="17">D47/E47</f>
+        <v>0.81648203014298593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1171564</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1431584</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1550878</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1869446</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48">
+        <f t="shared" si="16"/>
+        <v>0.81836902340344686</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="17"/>
+        <v>0.8295922963273612</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="9"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="9"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="9"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="9"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="4">
+        <v>71154</v>
+      </c>
+      <c r="C57" s="4">
+        <v>84576</v>
+      </c>
+      <c r="D57" s="4">
+        <v>119301</v>
+      </c>
+      <c r="E57" s="4">
+        <v>135715</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57">
+        <f>B57/C57</f>
+        <v>0.84130249716231553</v>
+      </c>
+      <c r="I57">
+        <f>D57/E57</f>
+        <v>0.87905537339277162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="4">
+        <v>92568</v>
+      </c>
+      <c r="C58" s="4">
+        <v>97329</v>
+      </c>
+      <c r="D58" s="4">
+        <v>133336</v>
+      </c>
+      <c r="E58" s="4">
+        <v>140190</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58">
+        <f t="shared" ref="H58:H59" si="18">B58/C58</f>
+        <v>0.95108343864624112</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58:I59" si="19">D58/E58</f>
+        <v>0.9511092089307368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="4">
+        <v>120888</v>
+      </c>
+      <c r="C59" s="4">
+        <v>158356</v>
+      </c>
+      <c r="D59" s="4">
+        <v>156434</v>
+      </c>
+      <c r="E59" s="4">
+        <v>200642</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59">
+        <f t="shared" si="18"/>
+        <v>0.76339387203516129</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="19"/>
+        <v>0.77966726806949693</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="9"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="9"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="9"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="9"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="X18:Y18"/>
     <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="X2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-ec.xlsx
+++ b/journal-evaluation/diff-ec.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zrshen.CSDOMAIN.008\Desktop\caso-tpds\journal-evaluation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="38">
   <si>
     <t>caso-rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,24 +119,48 @@
   </si>
   <si>
     <t>rsrch_2</t>
+  </si>
+  <si>
+    <t>CASO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(4,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(6,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS(8,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRC(8,2,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -150,7 +169,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -159,14 +178,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,18 +293,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -301,7 +320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,7 +397,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,27 +608,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41:X46"/>
+    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35:X46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:28" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -652,25 +671,25 @@
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="3"/>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="12"/>
+      <c r="S2" s="14"/>
       <c r="T2" s="11"/>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="X2" s="12" t="s">
+      <c r="V2" s="14"/>
+      <c r="X2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="AA2" s="12" t="s">
+      <c r="Y2" s="14"/>
+      <c r="AA2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="12"/>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AB2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -745,7 +764,7 @@
         <v>15682</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -820,7 +839,7 @@
         <v>18794</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -887,7 +906,7 @@
         <v>19428</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -927,7 +946,7 @@
         <v>23490</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -967,7 +986,7 @@
         <v>22560</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1007,7 +1026,7 @@
         <v>26092</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1047,7 +1066,7 @@
         <v>27871</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="R10" s="10" t="s">
         <v>20</v>
       </c>
@@ -1073,7 +1092,7 @@
         <v>32165</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1">
+    <row r="11" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="R11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1099,7 +1118,7 @@
         <v>28909</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" thickBot="1">
+    <row r="12" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1159,7 +1178,7 @@
         <v>34340</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1234,7 +1253,7 @@
         <v>30398</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1309,7 +1328,7 @@
         <v>35488</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1379,7 @@
         <v>0.84744226609324635</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1376,7 +1395,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1392,7 +1411,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1407,24 +1426,24 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="R18" s="12" t="s">
+      <c r="R18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="12"/>
-      <c r="U18" s="12" t="s">
+      <c r="S18" s="14"/>
+      <c r="U18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="V18" s="12"/>
-      <c r="X18" s="12" t="s">
+      <c r="V18" s="14"/>
+      <c r="X18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Y18" s="12"/>
-      <c r="AA18" s="12" t="s">
+      <c r="Y18" s="14"/>
+      <c r="AA18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AB18" s="12"/>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AB18" s="14"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1464,7 +1483,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="R20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1490,7 +1509,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
       <c r="R21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1516,7 +1535,7 @@
         <v>54018</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1">
+    <row r="22" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="R22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1542,7 +1561,7 @@
         <v>58710</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1">
+    <row r="23" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1602,7 +1621,7 @@
         <v>60672</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
@@ -1677,7 +1696,7 @@
         <v>69084</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -1752,7 +1771,7 @@
         <v>75768</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -1827,7 +1846,7 @@
         <v>83351</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1867,7 +1886,7 @@
         <v>81611</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1907,7 +1926,7 @@
         <v>85598</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1947,7 +1966,7 @@
         <v>188181</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1987,8 +2006,8 @@
         <v>211042</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1"/>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1">
+    <row r="33" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2023,16 +2042,16 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="3"/>
-      <c r="T34" s="12" t="s">
+      <c r="T34" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="U34" s="12"/>
-      <c r="W34" s="12" t="s">
+      <c r="U34" s="14"/>
+      <c r="W34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="X34" s="12"/>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="X34" s="14"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>12</v>
       </c>
@@ -2082,20 +2101,26 @@
         <f>M35/N35</f>
         <v>0.90902328706314262</v>
       </c>
-      <c r="T35" s="10" t="s">
-        <v>17</v>
+      <c r="S35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T35" t="s">
+        <v>32</v>
       </c>
       <c r="U35" s="4">
         <v>71154</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="X35" s="4">
+        <v>34</v>
+      </c>
+      <c r="X35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y35" s="4">
         <v>757364</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -2145,20 +2170,26 @@
         <f t="shared" ref="Q36:Q37" si="15">M36/N36</f>
         <v>0.95342180892076922</v>
       </c>
-      <c r="T36" s="10" t="s">
-        <v>17</v>
+      <c r="S36" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T36" t="s">
+        <v>33</v>
       </c>
       <c r="U36" s="4">
         <v>84576</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="X36" s="4">
+        <v>34</v>
+      </c>
+      <c r="X36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y36" s="4">
         <v>875730</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2208,20 +2239,26 @@
         <f t="shared" si="15"/>
         <v>0.89167559064072555</v>
       </c>
-      <c r="T37" s="10" t="s">
-        <v>18</v>
+      <c r="S37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" t="s">
+        <v>32</v>
       </c>
       <c r="U37" s="4">
         <v>92568</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="X37" s="4">
+        <v>35</v>
+      </c>
+      <c r="X37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y37" s="4">
         <v>957870</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2236,20 +2273,26 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="T38" s="10" t="s">
-        <v>18</v>
+      <c r="S38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T38" t="s">
+        <v>33</v>
       </c>
       <c r="U38" s="4">
         <v>97329</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="X38" s="4">
+        <v>35</v>
+      </c>
+      <c r="X38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y38" s="4">
         <v>1204059</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2264,20 +2307,26 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="T39" s="10" t="s">
-        <v>19</v>
+      <c r="S39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39" t="s">
+        <v>32</v>
       </c>
       <c r="U39" s="4">
         <v>120888</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="X39" s="4">
+        <v>36</v>
+      </c>
+      <c r="X39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y39" s="4">
         <v>1171564</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2292,20 +2341,26 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="T40" s="10" t="s">
-        <v>19</v>
+      <c r="S40" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T40" t="s">
+        <v>33</v>
       </c>
       <c r="U40" s="4">
         <v>158356</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="X40" s="4">
+        <v>36</v>
+      </c>
+      <c r="X40" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y40" s="4">
         <v>1431584</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2320,8 +2375,11 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="T41" s="10" t="s">
+      <c r="S41" s="10" t="s">
         <v>20</v>
+      </c>
+      <c r="T41" t="s">
+        <v>32</v>
       </c>
       <c r="U41" s="4">
         <v>119301</v>
@@ -2329,11 +2387,14 @@
       <c r="W41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X41" s="4">
+      <c r="X41" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y41" s="4">
         <v>1291299</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="H42">
         <f>AVERAGE(H2:H37)</f>
         <v>0.85400231977681473</v>
@@ -2350,8 +2411,11 @@
         <f>AVERAGE(Q3:Q37)</f>
         <v>0.93317873286231101</v>
       </c>
-      <c r="T42" s="10" t="s">
+      <c r="S42" s="10" t="s">
         <v>20</v>
+      </c>
+      <c r="T42" t="s">
+        <v>33</v>
       </c>
       <c r="U42" s="4">
         <v>135715</v>
@@ -2359,13 +2423,19 @@
       <c r="W42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X42" s="4">
+      <c r="X42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y42" s="4">
         <v>1458821</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
-      <c r="T43" s="10" t="s">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="S43" s="10" t="s">
         <v>21</v>
+      </c>
+      <c r="T43" t="s">
+        <v>32</v>
       </c>
       <c r="U43" s="4">
         <v>133336</v>
@@ -2373,11 +2443,14 @@
       <c r="W43" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X43" s="4">
+      <c r="X43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y43" s="4">
         <v>1394437</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15.75" thickBot="1">
+    <row r="44" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="H44">
         <f>1-H42</f>
         <v>0.14599768022318527</v>
@@ -2394,8 +2467,11 @@
         <f>1-Q42</f>
         <v>6.6821267137688989E-2</v>
       </c>
-      <c r="T44" s="10" t="s">
+      <c r="S44" s="10" t="s">
         <v>21</v>
+      </c>
+      <c r="T44" t="s">
+        <v>33</v>
       </c>
       <c r="U44" s="4">
         <v>140190</v>
@@ -2403,11 +2479,14 @@
       <c r="W44" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X44" s="4">
+      <c r="X44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y44" s="4">
         <v>1707860</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15.75" thickBot="1">
+    <row r="45" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>30</v>
       </c>
@@ -2425,20 +2504,26 @@
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
-      <c r="T45" s="10" t="s">
-        <v>22</v>
+      <c r="S45" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T45" t="s">
+        <v>32</v>
       </c>
       <c r="U45" s="4">
         <v>156434</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X45" s="4">
+        <v>37</v>
+      </c>
+      <c r="X45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y45" s="4">
         <v>1550878</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>12</v>
       </c>
@@ -2464,20 +2549,26 @@
         <f>D46/E46</f>
         <v>0.88516617186070123</v>
       </c>
-      <c r="T46" s="10" t="s">
-        <v>22</v>
+      <c r="S46" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T46" t="s">
+        <v>33</v>
       </c>
       <c r="U46" s="4">
         <v>200642</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X46" s="4">
+        <v>37</v>
+      </c>
+      <c r="X46" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y46" s="4">
         <v>1869446</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>11</v>
       </c>
@@ -2504,7 +2595,7 @@
         <v>0.81648203014298593</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>13</v>
       </c>
@@ -2531,7 +2622,7 @@
         <v>0.8295922963273612</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2540,7 +2631,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2549,7 +2640,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2558,7 +2649,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2567,8 +2658,8 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1">
+    <row r="55" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>31</v>
       </c>
@@ -2587,7 +2678,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>12</v>
       </c>
@@ -2614,7 +2705,7 @@
         <v>0.87905537339277162</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>11</v>
       </c>
@@ -2641,7 +2732,7 @@
         <v>0.9511092089307368</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>13</v>
       </c>
@@ -2668,7 +2759,7 @@
         <v>0.77966726806949693</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2677,7 +2768,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2686,7 +2777,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2695,7 +2786,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2706,17 +2797,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="T34:U34"/>
     <mergeCell ref="W34:X34"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="AA18:AB18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2730,7 +2821,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2743,7 +2834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-ec.xlsx
+++ b/journal-evaluation/diff-ec.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zrshen.CSDOMAIN.008\Desktop\caso-tc\journal-evaluation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="32">
   <si>
     <t>caso-rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,48 +124,24 @@
   </si>
   <si>
     <t>rsrch_2</t>
-  </si>
-  <si>
-    <t>CASO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS(4,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS(6,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS(8,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LRC(8,2,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -169,7 +150,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -178,14 +159,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,7 +285,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -320,7 +301,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -362,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,16 +589,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35:X46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="120" customHeight="1" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -628,7 +609,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -689,7 +670,7 @@
       </c>
       <c r="AB2" s="14"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -764,7 +745,7 @@
         <v>15682</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -839,7 +820,7 @@
         <v>18794</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -906,7 +887,7 @@
         <v>19428</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28">
       <c r="A6" s="9"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -946,7 +927,7 @@
         <v>23490</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28">
       <c r="A7" s="9"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -986,7 +967,7 @@
         <v>22560</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28">
       <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1026,7 +1007,7 @@
         <v>26092</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1066,7 +1047,7 @@
         <v>27871</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28">
       <c r="R10" s="10" t="s">
         <v>20</v>
       </c>
@@ -1092,7 +1073,7 @@
         <v>32165</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15.75" thickBot="1">
       <c r="R11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1118,7 +1099,7 @@
         <v>28909</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1159,7 @@
         <v>34340</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1253,7 +1234,7 @@
         <v>30398</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1328,7 +1309,7 @@
         <v>35488</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1379,7 +1360,7 @@
         <v>0.84744226609324635</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1395,7 +1376,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1411,7 +1392,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1443,7 +1424,7 @@
       </c>
       <c r="AB18" s="14"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1483,7 +1464,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28">
       <c r="R20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1509,7 +1490,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28">
       <c r="R21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1535,7 +1516,7 @@
         <v>54018</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="15.75" thickBot="1">
       <c r="R22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1561,7 +1542,7 @@
         <v>58710</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="15.75" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1621,7 +1602,7 @@
         <v>60672</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28">
       <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
@@ -1696,7 +1677,7 @@
         <v>69084</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -1771,7 +1752,7 @@
         <v>75768</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28">
       <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
@@ -1846,7 +1827,7 @@
         <v>83351</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28">
       <c r="A27" s="9"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1886,7 +1867,7 @@
         <v>81611</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1926,7 +1907,7 @@
         <v>85598</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28">
       <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1966,7 +1947,7 @@
         <v>188181</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28">
       <c r="A30" s="9"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2006,8 +1987,8 @@
         <v>211042</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +2032,7 @@
       </c>
       <c r="X34" s="14"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24">
       <c r="A35" s="9" t="s">
         <v>12</v>
       </c>
@@ -2101,26 +2082,20 @@
         <f>M35/N35</f>
         <v>0.90902328706314262</v>
       </c>
-      <c r="S35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T35" t="s">
-        <v>32</v>
+      <c r="T35" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="U35" s="4">
         <v>71154</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="X35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y35" s="4">
+        <v>17</v>
+      </c>
+      <c r="X35" s="4">
         <v>757364</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -2170,26 +2145,20 @@
         <f t="shared" ref="Q36:Q37" si="15">M36/N36</f>
         <v>0.95342180892076922</v>
       </c>
-      <c r="S36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="T36" t="s">
-        <v>33</v>
+      <c r="T36" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="U36" s="4">
         <v>84576</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="X36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y36" s="4">
+        <v>17</v>
+      </c>
+      <c r="X36" s="4">
         <v>875730</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24">
       <c r="A37" s="9" t="s">
         <v>13</v>
       </c>
@@ -2239,26 +2208,20 @@
         <f t="shared" si="15"/>
         <v>0.89167559064072555</v>
       </c>
-      <c r="S37" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="T37" t="s">
-        <v>32</v>
+      <c r="T37" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="U37" s="4">
         <v>92568</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X37" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y37" s="4">
+        <v>18</v>
+      </c>
+      <c r="X37" s="4">
         <v>957870</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24">
       <c r="A38" s="9"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2273,26 +2236,20 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="S38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="T38" t="s">
-        <v>33</v>
+      <c r="T38" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="U38" s="4">
         <v>97329</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y38" s="4">
+        <v>18</v>
+      </c>
+      <c r="X38" s="4">
         <v>1204059</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24">
       <c r="A39" s="9"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2307,26 +2264,20 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="S39" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="T39" t="s">
-        <v>32</v>
+      <c r="T39" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="U39" s="4">
         <v>120888</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="X39" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y39" s="4">
+        <v>19</v>
+      </c>
+      <c r="X39" s="4">
         <v>1171564</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24">
       <c r="A40" s="9"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2341,26 +2292,20 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="S40" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="T40" t="s">
-        <v>33</v>
+      <c r="T40" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="U40" s="4">
         <v>158356</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="X40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y40" s="4">
+        <v>19</v>
+      </c>
+      <c r="X40" s="4">
         <v>1431584</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24">
       <c r="A41" s="9"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2375,11 +2320,8 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="S41" s="10" t="s">
+      <c r="T41" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="T41" t="s">
-        <v>32</v>
       </c>
       <c r="U41" s="4">
         <v>119301</v>
@@ -2387,14 +2329,11 @@
       <c r="W41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X41" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y41" s="4">
+      <c r="X41" s="4">
         <v>1291299</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24">
       <c r="H42">
         <f>AVERAGE(H2:H37)</f>
         <v>0.85400231977681473</v>
@@ -2411,11 +2350,8 @@
         <f>AVERAGE(Q3:Q37)</f>
         <v>0.93317873286231101</v>
       </c>
-      <c r="S42" s="10" t="s">
+      <c r="T42" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="T42" t="s">
-        <v>33</v>
       </c>
       <c r="U42" s="4">
         <v>135715</v>
@@ -2423,19 +2359,13 @@
       <c r="W42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X42" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y42" s="4">
+      <c r="X42" s="4">
         <v>1458821</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="S43" s="10" t="s">
+    <row r="43" spans="1:24">
+      <c r="T43" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="T43" t="s">
-        <v>32</v>
       </c>
       <c r="U43" s="4">
         <v>133336</v>
@@ -2443,14 +2373,11 @@
       <c r="W43" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X43" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y43" s="4">
+      <c r="X43" s="4">
         <v>1394437</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="15.75" thickBot="1">
       <c r="H44">
         <f>1-H42</f>
         <v>0.14599768022318527</v>
@@ -2467,11 +2394,8 @@
         <f>1-Q42</f>
         <v>6.6821267137688989E-2</v>
       </c>
-      <c r="S44" s="10" t="s">
+      <c r="T44" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="T44" t="s">
-        <v>33</v>
       </c>
       <c r="U44" s="4">
         <v>140190</v>
@@ -2479,14 +2403,11 @@
       <c r="W44" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="X44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y44" s="4">
+      <c r="X44" s="4">
         <v>1707860</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="15.75" thickBot="1">
       <c r="A45" s="6" t="s">
         <v>30</v>
       </c>
@@ -2504,26 +2425,20 @@
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
-      <c r="S45" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="T45" t="s">
-        <v>32</v>
+      <c r="T45" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="U45" s="4">
         <v>156434</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="X45" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y45" s="4">
+        <v>22</v>
+      </c>
+      <c r="X45" s="4">
         <v>1550878</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:24">
       <c r="A46" s="9" t="s">
         <v>12</v>
       </c>
@@ -2549,26 +2464,20 @@
         <f>D46/E46</f>
         <v>0.88516617186070123</v>
       </c>
-      <c r="S46" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="T46" t="s">
-        <v>33</v>
+      <c r="T46" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="U46" s="4">
         <v>200642</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="X46" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y46" s="4">
+        <v>22</v>
+      </c>
+      <c r="X46" s="4">
         <v>1869446</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:24">
       <c r="A47" s="9" t="s">
         <v>11</v>
       </c>
@@ -2595,7 +2504,7 @@
         <v>0.81648203014298593</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:24">
       <c r="A48" s="9" t="s">
         <v>13</v>
       </c>
@@ -2622,7 +2531,7 @@
         <v>0.8295922963273612</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9">
       <c r="A49" s="9"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2631,7 +2540,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2640,7 +2549,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9">
       <c r="A51" s="9"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2649,7 +2558,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="A52" s="9"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2658,8 +2567,8 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="55" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1">
       <c r="A56" s="6" t="s">
         <v>31</v>
       </c>
@@ -2678,7 +2587,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9">
       <c r="A57" s="9" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +2614,7 @@
         <v>0.87905537339277162</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9">
       <c r="A58" s="9" t="s">
         <v>11</v>
       </c>
@@ -2732,7 +2641,7 @@
         <v>0.9511092089307368</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
         <v>13</v>
       </c>
@@ -2759,7 +2668,7 @@
         <v>0.77966726806949693</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9">
       <c r="A60" s="9"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2768,7 +2677,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9">
       <c r="A61" s="9"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2777,7 +2686,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9">
       <c r="A62" s="9"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2786,7 +2695,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9">
       <c r="A63" s="9"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2821,7 +2730,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2834,7 +2743,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-ec.xlsx
+++ b/journal-evaluation/diff-ec.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zrshen.CSDOMAIN.008\Desktop\caso-tc\journal-evaluation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="30">
   <si>
     <t>caso-rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,12 +48,6 @@
     <t>src2_1</t>
   </si>
   <si>
-    <t>web_2</t>
-  </si>
-  <si>
-    <t>proj_4</t>
-  </si>
-  <si>
     <t>hm_1</t>
   </si>
   <si>
@@ -74,74 +63,75 @@
     <t>wdev_1</t>
   </si>
   <si>
-    <t>Number of parity updates with different erasure codes (ratio=0.5, tm_dis=3), 其中lrc分别为（4,2,2），（6,2,3），（8,2,4）, 三个参数的意思是k,l,m
+    <t>wdev3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS(4,2) </t>
+  </si>
+  <si>
+    <t>RS(6,3)</t>
+  </si>
+  <si>
+    <t>RS(8,4)</t>
+  </si>
+  <si>
+    <t>LRC(4,2,2)</t>
+  </si>
+  <si>
+    <t>LRC(6,2,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRC(8,2,4) </t>
+  </si>
+  <si>
+    <t>wdev1</t>
+  </si>
+  <si>
+    <t>wdev2</t>
+  </si>
+  <si>
+    <t>rsrch1</t>
+  </si>
+  <si>
+    <t>src21</t>
+  </si>
+  <si>
+    <t>web2</t>
+  </si>
+  <si>
+    <t>proj4</t>
+  </si>
+  <si>
+    <t>hm1</t>
+  </si>
+  <si>
+    <t>wdev_0</t>
+  </si>
+  <si>
+    <t>rsrch_2</t>
+  </si>
+  <si>
+    <t>Number of parity updates with different erasure codes (ratio=0.5, tm_dis=4), 其中lrc分别为（4,2,2），（6,2,3），（8,2,4）, 三个参数的意思是k,l,m
 time_distance=4</t>
-  </si>
-  <si>
-    <t>wdev3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS(4,2) </t>
-  </si>
-  <si>
-    <t>RS(6,3)</t>
-  </si>
-  <si>
-    <t>RS(8,4)</t>
-  </si>
-  <si>
-    <t>LRC(4,2,2)</t>
-  </si>
-  <si>
-    <t>LRC(6,2,3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRC(8,2,4) </t>
-  </si>
-  <si>
-    <t>wdev1</t>
-  </si>
-  <si>
-    <t>wdev2</t>
-  </si>
-  <si>
-    <t>rsrch1</t>
-  </si>
-  <si>
-    <t>src21</t>
-  </si>
-  <si>
-    <t>web2</t>
-  </si>
-  <si>
-    <t>proj4</t>
-  </si>
-  <si>
-    <t>hm1</t>
-  </si>
-  <si>
-    <t>wdev_0</t>
-  </si>
-  <si>
-    <t>rsrch_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -150,7 +140,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -159,14 +149,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -274,6 +264,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -285,7 +287,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -301,7 +303,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,29 +589,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB63"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="120" customHeight="1" thickBot="1">
-      <c r="A1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1">
+    <row r="1" spans="1:28" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -635,44 +637,27 @@
         <f>D3/E3</f>
         <v>0.94011976047904189</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="3"/>
-      <c r="R2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="14"/>
+      <c r="R2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="18"/>
       <c r="T2" s="11"/>
-      <c r="U2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="14"/>
-      <c r="X2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="14"/>
-      <c r="AA2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" s="14"/>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="U2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="X2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="18"/>
+      <c r="AA2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="18"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4">
         <v>640</v>
@@ -696,58 +681,34 @@
         <f t="shared" ref="I3:I4" si="1">D4/E4</f>
         <v>0.99133448873483532</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="4">
-        <v>18634</v>
-      </c>
-      <c r="L3" s="4">
-        <v>20522</v>
-      </c>
-      <c r="M3" s="4">
-        <v>32747</v>
-      </c>
-      <c r="N3" s="4">
-        <v>35375</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4">
-        <f>K3/L3</f>
-        <v>0.90800116947665921</v>
-      </c>
-      <c r="Q3">
-        <f>M3/N3</f>
-        <v>0.92571024734982332</v>
-      </c>
       <c r="R3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S3" s="4">
         <v>640</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V3" s="4">
         <v>756</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y3" s="4">
         <v>161288</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB3" s="4">
         <v>15682</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>786</v>
@@ -771,58 +732,34 @@
         <f t="shared" si="1"/>
         <v>0.74312463428905795</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="4">
-        <v>22530</v>
-      </c>
-      <c r="L4" s="4">
-        <v>25860</v>
-      </c>
-      <c r="M4" s="4">
-        <v>33638</v>
-      </c>
-      <c r="N4" s="4">
-        <v>37692</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4">
-        <f t="shared" ref="P4:P5" si="2">K4/L4</f>
-        <v>0.87122969837587005</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q5" si="3">M4/N4</f>
-        <v>0.89244401995118328</v>
-      </c>
       <c r="R4" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S4" s="4">
         <v>710</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V4" s="4">
         <v>1048</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y4" s="4">
         <v>206162</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB4" s="4">
         <v>18794</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>952</v>
@@ -838,56 +775,32 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="J5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="4">
-        <v>25888</v>
-      </c>
-      <c r="L5" s="4">
-        <v>28452</v>
-      </c>
-      <c r="M5" s="4">
-        <v>34870</v>
-      </c>
-      <c r="N5" s="4">
-        <v>38712</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4">
-        <f t="shared" si="2"/>
-        <v>0.90988331224518493</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>0.90075428807604874</v>
-      </c>
       <c r="R5" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S5" s="4">
         <v>786</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V5" s="4">
         <v>1422</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y5" s="4">
         <v>204321</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB5" s="4">
         <v>19428</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -895,39 +808,32 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
       <c r="R6" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S6" s="4">
         <v>759</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V6" s="4">
         <v>1548</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y6" s="5">
         <v>268515</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB6" s="4">
         <v>23490</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -935,39 +841,32 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
       <c r="R7" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S7" s="4">
         <v>952</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V7" s="4">
         <v>1580</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y7" s="4">
         <v>244460</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB7" s="4">
         <v>22560</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -975,39 +874,32 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
       <c r="R8" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S8" s="4">
         <v>1356</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V8" s="4">
         <v>1412</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y8" s="5">
         <v>313156</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB8" s="4">
         <v>26092</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1015,93 +907,86 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
       <c r="R9" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S9" s="4">
         <v>1099</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V9" s="4">
         <v>1235</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y9" s="5">
         <v>279365</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AB9" s="4">
         <v>27871</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="R10" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S10" s="4">
         <v>1169</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V10" s="4">
         <v>1604</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y10" s="5">
         <v>344390</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AB10" s="4">
         <v>32165</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1">
+    <row r="11" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="R11" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S11" s="4">
         <v>1144</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V11" s="4">
         <v>1935</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y11" s="5">
         <v>299671</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB11" s="4">
         <v>28909</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" thickBot="1">
+    <row r="12" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -1117,51 +1002,42 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="J12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="3"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S12" s="4">
         <v>1154</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V12" s="4">
         <v>2096</v>
       </c>
       <c r="X12" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y12" s="5">
         <v>384350</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB12" s="4">
         <v>34340</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4">
         <v>756</v>
@@ -1185,58 +1061,42 @@
         <f>D13/E13</f>
         <v>0.76995012468827928</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="4">
-        <v>55588</v>
-      </c>
-      <c r="L13" s="4">
-        <v>58616</v>
-      </c>
-      <c r="M13" s="4">
-        <v>101953</v>
-      </c>
-      <c r="N13" s="4">
-        <v>103784</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4">
-        <f>K13/L13</f>
-        <v>0.94834174969291662</v>
-      </c>
-      <c r="Q13">
-        <f>M13/N13</f>
-        <v>0.98235758883835655</v>
-      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S13" s="4">
         <v>1270</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V13" s="4">
         <v>2000</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y13" s="5">
         <v>326014</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB13" s="4">
         <v>30398</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4">
         <v>1422</v>
@@ -1253,65 +1113,49 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14">
-        <f t="shared" ref="H14:H15" si="4">B14/C14</f>
+        <f t="shared" ref="H14:H15" si="2">B14/C14</f>
         <v>0.91860465116279066</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I15" si="5">D14/E14</f>
+        <f t="shared" ref="I14:I15" si="3">D14/E14</f>
         <v>0.92318702290076338</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="4">
-        <v>63288</v>
-      </c>
-      <c r="L14" s="4">
-        <v>61443</v>
-      </c>
-      <c r="M14" s="4">
-        <v>97290</v>
-      </c>
-      <c r="N14" s="4">
-        <v>96527</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4">
-        <f t="shared" ref="P14:P15" si="6">K14/L14</f>
-        <v>1.0300278306723305</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" ref="Q14:Q15" si="7">M14/N14</f>
-        <v>1.0079045241227842</v>
-      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S14" s="4">
         <v>1709</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V14" s="4">
         <v>1935</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y14" s="5">
         <v>416234</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB14" s="4">
         <v>35488</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4">
         <v>1580</v>
@@ -1328,39 +1172,23 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1189801699716715</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.0335917312661498</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="4">
-        <v>72252</v>
-      </c>
-      <c r="L15" s="4">
-        <v>87652</v>
-      </c>
-      <c r="M15" s="4">
-        <v>99116</v>
-      </c>
-      <c r="N15" s="4">
-        <v>116959</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4">
-        <f t="shared" si="6"/>
-        <v>0.82430520695477572</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="7"/>
-        <v>0.84744226609324635</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="J15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1368,15 +1196,16 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="J16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1384,15 +1213,16 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="J17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1400,31 +1230,32 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="R18" s="14" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="18"/>
+      <c r="U18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" s="18"/>
+      <c r="X18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y18" s="18"/>
+      <c r="AA18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="14"/>
-      <c r="U18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="V18" s="14"/>
-      <c r="X18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" s="14"/>
-      <c r="AA18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB18" s="14"/>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AB18" s="18"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1432,117 +1263,142 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14"/>
       <c r="R19" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S19" s="4">
         <v>18634</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V19" s="4">
         <v>55588</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y19" s="4">
         <v>102180</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB19" s="4">
         <v>44456</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
       <c r="R20" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S20" s="4">
         <v>20522</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V20" s="4">
         <v>58616</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y20" s="4">
         <v>103046</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB20" s="4">
         <v>46100</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
       <c r="R21" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S21" s="4">
         <v>22530</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V21" s="4">
         <v>63288</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y21" s="4">
         <v>121038</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB21" s="4">
         <v>54018</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1">
+    <row r="22" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
       <c r="R22" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S22" s="4">
         <v>25860</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V22" s="4">
         <v>61443</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y22" s="4">
         <v>122352</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB22" s="4">
         <v>58710</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1">
+    <row r="23" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1560,51 +1416,42 @@
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
-      <c r="J23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="3"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="14"/>
       <c r="R23" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S23" s="4">
         <v>25888</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V23" s="4">
         <v>72252</v>
       </c>
       <c r="X23" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y23" s="4">
         <v>138708</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB23" s="4">
         <v>60672</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="4">
         <v>161288</v>
@@ -1628,58 +1475,45 @@
         <f>D24/E24</f>
         <v>0.81118789744185371</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="4">
-        <v>102180</v>
-      </c>
-      <c r="L24" s="4">
-        <v>103046</v>
-      </c>
-      <c r="M24" s="4">
-        <v>178214</v>
-      </c>
-      <c r="N24" s="4">
-        <v>178471</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4">
-        <f>K24/L24</f>
-        <v>0.99159598625856415</v>
-      </c>
-      <c r="Q24">
-        <f>M24/N24</f>
-        <v>0.99855999013845387</v>
-      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="13">
+        <f>1-H24</f>
+        <v>0.21766377896993627</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="14"/>
       <c r="R24" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S24" s="4">
         <v>28452</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V24" s="4">
         <v>87652</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y24" s="4">
         <v>159520</v>
       </c>
       <c r="AA24" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB24" s="4">
         <v>69084</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4">
         <v>204321</v>
@@ -1696,65 +1530,49 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25">
-        <f t="shared" ref="H25:H26" si="8">B25/C25</f>
+        <f t="shared" ref="H25:H26" si="4">B25/C25</f>
         <v>0.76092955700798837</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I26" si="9">D25/E25</f>
+        <f t="shared" ref="I25:I26" si="5">D25/E25</f>
         <v>0.77968258098087684</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="4">
-        <v>121038</v>
-      </c>
-      <c r="L25" s="4">
-        <v>122352</v>
-      </c>
-      <c r="M25" s="4">
-        <v>181778</v>
-      </c>
-      <c r="N25" s="4">
-        <v>181034</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4">
-        <f t="shared" ref="P25:P26" si="10">K25/L25</f>
-        <v>0.98926049431149465</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" ref="Q25:Q26" si="11">M25/N25</f>
-        <v>1.0041097252449815</v>
-      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="14"/>
       <c r="R25" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S25" s="4">
         <v>32747</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V25" s="4">
         <v>101953</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y25" s="4">
         <v>178214</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AB25" s="4">
         <v>75768</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4">
         <v>244460</v>
@@ -1771,63 +1589,47 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.7806332945880009</v>
       </c>
       <c r="I26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0.78324692360547188</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="4">
-        <v>138708</v>
-      </c>
-      <c r="L26" s="4">
-        <v>159520</v>
-      </c>
-      <c r="M26" s="4">
-        <v>81513</v>
-      </c>
-      <c r="N26" s="4">
-        <v>92132</v>
-      </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4">
-        <f t="shared" si="10"/>
-        <v>0.86953360080240727</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="11"/>
-        <v>0.88474145790821868</v>
-      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
       <c r="R26" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S26" s="4">
         <v>35375</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V26" s="4">
         <v>103784</v>
       </c>
       <c r="X26" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y26" s="4">
         <v>178471</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AB26" s="4">
         <v>83351</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1835,39 +1637,40 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="14"/>
       <c r="R27" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S27" s="4">
         <v>33638</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V27" s="4">
         <v>97290</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y27" s="4">
         <v>181778</v>
       </c>
       <c r="AA27" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB27" s="4">
         <v>81611</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1875,39 +1678,40 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="14"/>
       <c r="R28" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S28" s="4">
         <v>37692</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V28" s="4">
         <v>96527</v>
       </c>
       <c r="X28" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y28" s="4">
         <v>181034</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB28" s="4">
         <v>85598</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1915,39 +1719,40 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
       <c r="R29" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S29" s="4">
         <v>34870</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V29" s="4">
         <v>99116</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y29" s="4">
         <v>81513</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB29" s="4">
         <v>188181</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1955,40 +1760,41 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="14"/>
       <c r="R30" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S30" s="4">
         <v>38712</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V30" s="4">
         <v>116959</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y30" s="4">
         <v>92132</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB30" s="4">
         <v>211042</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1"/>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1">
+    <row r="33" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2006,35 +1812,18 @@
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
-      <c r="J34" s="1" t="s">
+      <c r="T34" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="U34" s="18"/>
+      <c r="W34" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X34" s="18"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="3"/>
-      <c r="T34" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="U34" s="14"/>
-      <c r="W34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="X34" s="14"/>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="A35" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="B35" s="4">
         <v>15682</v>
@@ -2058,46 +1847,22 @@
         <f>D35/E35</f>
         <v>0.86650085496657858</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="4">
-        <v>44456</v>
-      </c>
-      <c r="L35" s="4">
-        <v>46100</v>
-      </c>
-      <c r="M35" s="4">
-        <v>75768</v>
-      </c>
-      <c r="N35" s="4">
-        <v>83351</v>
-      </c>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4">
-        <f>K35/L35</f>
-        <v>0.96433839479392625</v>
-      </c>
-      <c r="Q35">
-        <f>M35/N35</f>
-        <v>0.90902328706314262</v>
-      </c>
       <c r="T35" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U35" s="4">
         <v>71154</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X35" s="4">
         <v>757364</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" s="4">
         <v>19428</v>
@@ -2114,53 +1879,29 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36">
-        <f t="shared" ref="H36:H37" si="12">B36/C36</f>
+        <f t="shared" ref="H36:H37" si="6">B36/C36</f>
         <v>0.82707535121328224</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I37" si="13">D36/E36</f>
+        <f t="shared" ref="I36:I37" si="7">D36/E36</f>
         <v>0.84184624344787418</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="4">
-        <v>54018</v>
-      </c>
-      <c r="L36" s="4">
-        <v>58710</v>
-      </c>
-      <c r="M36" s="4">
-        <v>81611</v>
-      </c>
-      <c r="N36" s="4">
-        <v>85598</v>
-      </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4">
-        <f t="shared" ref="P36:P37" si="14">K36/L36</f>
-        <v>0.92008175779253965</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" ref="Q36:Q37" si="15">M36/N36</f>
-        <v>0.95342180892076922</v>
-      </c>
       <c r="T36" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U36" s="4">
         <v>84576</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X36" s="4">
         <v>875730</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" s="4">
         <v>22560</v>
@@ -2177,51 +1918,27 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0.86463283765138743</v>
       </c>
       <c r="I37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.85657123534715962</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="4">
-        <v>60672</v>
-      </c>
-      <c r="L37" s="4">
-        <v>69084</v>
-      </c>
-      <c r="M37" s="4">
-        <v>188181</v>
-      </c>
-      <c r="N37" s="4">
-        <v>211042</v>
-      </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4">
-        <f t="shared" si="14"/>
-        <v>0.87823519194024668</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="15"/>
-        <v>0.89167559064072555</v>
-      </c>
       <c r="T37" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U37" s="4">
         <v>92568</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="X37" s="4">
         <v>957870</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2229,27 +1946,20 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
       <c r="T38" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U38" s="4">
         <v>97329</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="X38" s="4">
         <v>1204059</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2257,27 +1967,20 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
       <c r="T39" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U39" s="4">
         <v>120888</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X39" s="4">
         <v>1171564</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2285,27 +1988,28 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
+      <c r="L40">
+        <f>AVERAGE(H2:I37)</f>
+        <v>0.85784880564457167</v>
+      </c>
+      <c r="M40">
+        <f>1-L40</f>
+        <v>0.14215119435542833</v>
+      </c>
       <c r="T40" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U40" s="4">
         <v>158356</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X40" s="4">
         <v>1431584</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2313,103 +2017,80 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="L41">
+        <f>AVERAGE(H46:I59)</f>
+        <v>0.84796605179721263</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41:M42" si="8">1-L41</f>
+        <v>0.15203394820278737</v>
+      </c>
       <c r="T41" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U41" s="4">
         <v>119301</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X41" s="4">
         <v>1291299</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
-      <c r="H42">
-        <f>AVERAGE(H2:H37)</f>
-        <v>0.85400231977681473</v>
-      </c>
-      <c r="I42">
-        <f>AVERAGE(I2:I37)</f>
-        <v>0.86169529151232849</v>
-      </c>
-      <c r="P42">
-        <f>AVERAGE(P3:P37)</f>
-        <v>0.92540286610974298</v>
-      </c>
-      <c r="Q42">
-        <f>AVERAGE(Q3:Q37)</f>
-        <v>0.93317873286231101</v>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="L42">
+        <f>AVERAGE(H67:I79)</f>
+        <v>0.91039989721884318</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="8"/>
+        <v>8.9600102781156821E-2</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U42" s="4">
         <v>135715</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X42" s="4">
         <v>1458821</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="T43" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U43" s="4">
         <v>133336</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X43" s="4">
         <v>1394437</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15.75" thickBot="1">
-      <c r="H44">
-        <f>1-H42</f>
-        <v>0.14599768022318527</v>
-      </c>
-      <c r="I44">
-        <f>1-I42</f>
-        <v>0.13830470848767151</v>
-      </c>
-      <c r="P44">
-        <f>1-P42</f>
-        <v>7.4597133890257017E-2</v>
-      </c>
-      <c r="Q44">
-        <f>1-Q42</f>
-        <v>6.6821267137688989E-2</v>
-      </c>
+    <row r="44" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="T44" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="U44" s="4">
         <v>140190</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X44" s="4">
         <v>1707860</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15.75" thickBot="1">
+    <row r="45" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>0</v>
@@ -2426,21 +2107,21 @@
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
       <c r="T45" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U45" s="4">
         <v>156434</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X45" s="4">
         <v>1550878</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B46" s="4">
         <v>757364</v>
@@ -2465,21 +2146,21 @@
         <v>0.88516617186070123</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U46" s="4">
         <v>200642</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X46" s="4">
         <v>1869446</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" s="4">
         <v>957870</v>
@@ -2496,17 +2177,17 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47">
-        <f t="shared" ref="H47:H48" si="16">B47/C47</f>
+        <f t="shared" ref="H47:H48" si="9">B47/C47</f>
         <v>0.79553410588683782</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47:I48" si="17">D47/E47</f>
+        <f t="shared" ref="I47:I48" si="10">D47/E47</f>
         <v>0.81648203014298593</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" s="4">
         <v>1171564</v>
@@ -2523,15 +2204,15 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0.81836902340344686</v>
       </c>
       <c r="I48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>0.8295922963273612</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2540,7 +2221,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2549,7 +2230,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2558,7 +2239,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2567,10 +2248,10 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1">
+    <row r="55" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>0</v>
@@ -2587,9 +2268,9 @@
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B57" s="4">
         <v>71154</v>
@@ -2614,9 +2295,9 @@
         <v>0.87905537339277162</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" s="4">
         <v>92568</v>
@@ -2633,17 +2314,17 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58">
-        <f t="shared" ref="H58:H59" si="18">B58/C58</f>
+        <f t="shared" ref="H58:H59" si="11">B58/C58</f>
         <v>0.95108343864624112</v>
       </c>
       <c r="I58">
-        <f t="shared" ref="I58:I59" si="19">D58/E58</f>
+        <f t="shared" ref="I58:I59" si="12">D58/E58</f>
         <v>0.9511092089307368</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B59" s="4">
         <v>120888</v>
@@ -2660,15 +2341,15 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>0.76339387203516129</v>
       </c>
       <c r="I59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>0.77966726806949693</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2677,7 +2358,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2686,7 +2367,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2695,7 +2376,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2703,6 +2384,312 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="4">
+        <v>18634</v>
+      </c>
+      <c r="C67" s="4">
+        <v>20522</v>
+      </c>
+      <c r="D67" s="4">
+        <v>32747</v>
+      </c>
+      <c r="E67" s="4">
+        <v>35375</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="H67" s="4">
+        <f>B67/C67</f>
+        <v>0.90800116947665921</v>
+      </c>
+      <c r="I67">
+        <f>D67/E67</f>
+        <v>0.92571024734982332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="4">
+        <v>22530</v>
+      </c>
+      <c r="C68" s="4">
+        <v>25860</v>
+      </c>
+      <c r="D68" s="4">
+        <v>33638</v>
+      </c>
+      <c r="E68" s="4">
+        <v>37692</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="H68" s="4">
+        <f>B68/C68</f>
+        <v>0.87122969837587005</v>
+      </c>
+      <c r="I68">
+        <f>D68/E68</f>
+        <v>0.89244401995118328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="4">
+        <v>25888</v>
+      </c>
+      <c r="C69" s="4">
+        <v>28452</v>
+      </c>
+      <c r="D69" s="4">
+        <v>34870</v>
+      </c>
+      <c r="E69" s="4">
+        <v>38712</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="H69" s="4">
+        <f>B69/C69</f>
+        <v>0.90988331224518493</v>
+      </c>
+      <c r="I69">
+        <f>D69/E69</f>
+        <v>0.90075428807604874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="9"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="9"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="9"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="9"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="75" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="4">
+        <v>44456</v>
+      </c>
+      <c r="C77" s="4">
+        <v>46100</v>
+      </c>
+      <c r="D77" s="4">
+        <v>75768</v>
+      </c>
+      <c r="E77" s="4">
+        <v>83351</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="H77" s="4">
+        <f>B77/C77</f>
+        <v>0.96433839479392625</v>
+      </c>
+      <c r="I77">
+        <f>D77/E77</f>
+        <v>0.90902328706314262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="4">
+        <v>54018</v>
+      </c>
+      <c r="C78" s="4">
+        <v>58710</v>
+      </c>
+      <c r="D78" s="4">
+        <v>81611</v>
+      </c>
+      <c r="E78" s="4">
+        <v>85598</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="H78" s="4">
+        <f>B78/C78</f>
+        <v>0.92008175779253965</v>
+      </c>
+      <c r="I78">
+        <f>D78/E78</f>
+        <v>0.95342180892076922</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="4">
+        <v>60672</v>
+      </c>
+      <c r="C79" s="4">
+        <v>69084</v>
+      </c>
+      <c r="D79" s="4">
+        <v>188181</v>
+      </c>
+      <c r="E79" s="4">
+        <v>211042</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="H79" s="4">
+        <f>B79/C79</f>
+        <v>0.87823519194024668</v>
+      </c>
+      <c r="I79">
+        <f>D79/E79</f>
+        <v>0.89167559064072555</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="9"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="9"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="9"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="9"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H85">
+        <f>AVERAGE(H2:H79)</f>
+        <v>0.8639299014495293</v>
+      </c>
+      <c r="I85">
+        <f>AVERAGE(I2:I79)</f>
+        <v>0.87310187870307043</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C86">
+        <f>AVERAGE(H2,H24,H13,H35,H46,H57,H67,H77)</f>
+        <v>0.85225166919790563</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C87">
+        <f>AVERAGE(H3,H14,H36,H47,H58,H68,H78,H25)</f>
+        <v>0.88501396032689927</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C88">
+        <f>AVERAGE(H4,H15,H37,H48,H59,H69,H79,H26)</f>
+        <v>0.85452407482378279</v>
+      </c>
+      <c r="H88">
+        <f>AVERAGE(H2:I79)</f>
+        <v>0.86851589007630003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H90">
+        <f>1-H88</f>
+        <v>0.13148410992369997</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2730,7 +2717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2743,7 +2730,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/journal-evaluation/diff-ec.xlsx
+++ b/journal-evaluation/diff-ec.xlsx
@@ -276,13 +276,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -601,15 +601,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -637,23 +637,23 @@
         <f>D3/E3</f>
         <v>0.94011976047904189</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="18"/>
+      <c r="S2" s="16"/>
       <c r="T2" s="11"/>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="X2" s="18" t="s">
+      <c r="V2" s="16"/>
+      <c r="X2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="18"/>
-      <c r="AA2" s="18" t="s">
+      <c r="Y2" s="16"/>
+      <c r="AA2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="18"/>
+      <c r="AB2" s="16"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
@@ -731,6 +731,10 @@
       <c r="I4">
         <f t="shared" si="1"/>
         <v>0.74312463428905795</v>
+      </c>
+      <c r="K4">
+        <f>1-H4</f>
+        <v>0.29793510324483774</v>
       </c>
       <c r="R4" s="10" t="s">
         <v>14</v>
@@ -1062,7 +1066,10 @@
         <v>0.76995012468827928</v>
       </c>
       <c r="J13" s="15"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="13">
+        <f>1-H13</f>
+        <v>0.27862595419847325</v>
+      </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -1238,22 +1245,22 @@
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="18" t="s">
+      <c r="R18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="18"/>
-      <c r="U18" s="18" t="s">
+      <c r="S18" s="16"/>
+      <c r="U18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="X18" s="18" t="s">
+      <c r="V18" s="16"/>
+      <c r="X18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="Y18" s="18"/>
-      <c r="AA18" s="18" t="s">
+      <c r="Y18" s="16"/>
+      <c r="AA18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB18" s="18"/>
+      <c r="AB18" s="16"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
@@ -1812,14 +1819,14 @@
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
-      <c r="T34" s="18" t="s">
+      <c r="T34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U34" s="18"/>
-      <c r="W34" s="18" t="s">
+      <c r="U34" s="16"/>
+      <c r="W34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="X34" s="18"/>
+      <c r="X34" s="16"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
@@ -2212,7 +2219,7 @@
         <v>0.8295922963273612</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2221,7 +2228,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2230,7 +2237,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2239,7 +2246,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2248,8 +2255,8 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="55" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>28</v>
       </c>
@@ -2268,7 +2275,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>10</v>
       </c>
@@ -2295,7 +2302,7 @@
         <v>0.87905537339277162</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>9</v>
       </c>
@@ -2322,7 +2329,7 @@
         <v>0.9511092089307368</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>11</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>0.77966726806949693</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2357,8 +2364,12 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K60">
+        <f>AVERAGE(H2:I59)</f>
+        <v>0.85455455436211869</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2366,8 +2377,12 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K61">
+        <f>1-K60</f>
+        <v>0.14544544563788131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2376,7 +2391,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2626,7 +2641,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="9"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2634,8 +2649,12 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K81">
+        <f>AVERAGE(H67:I79)</f>
+        <v>0.91039989721884318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="9"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2644,7 +2663,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="9"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2653,7 +2672,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H85">
         <f>AVERAGE(H2:H79)</f>
         <v>0.8639299014495293</v>
@@ -2663,19 +2682,19 @@
         <v>0.87310187870307043</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C86">
         <f>AVERAGE(H2,H24,H13,H35,H46,H57,H67,H77)</f>
         <v>0.85225166919790563</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C87">
         <f>AVERAGE(H3,H14,H36,H47,H58,H68,H78,H25)</f>
         <v>0.88501396032689927</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C88">
         <f>AVERAGE(H4,H15,H37,H48,H59,H69,H79,H26)</f>
         <v>0.85452407482378279</v>
@@ -2685,7 +2704,7 @@
         <v>0.86851589007630003</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H90">
         <f>1-H88</f>
         <v>0.13148410992369997</v>
@@ -2693,17 +2712,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="T34:U34"/>
     <mergeCell ref="W34:X34"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="AA18:AB18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
